--- a/compare.xlsx
+++ b/compare.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$208</definedName>
-    <definedName name="compare_1" localSheetId="0">Sheet1!$A$1:$D$208</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$208</definedName>
+    <definedName name="compare_1" localSheetId="0">Sheet1!$A$1:$E$208</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -51,10 +51,12 @@
     <t>compareNum</t>
   </si>
   <si>
-    <t>grid(ms)</t>
+    <t>Grid索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>STR(ms)</t>
+    <t>STR树索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -168,12 +170,19 @@
             </a:r>
             <a:r>
               <a:rPr lang="zh-CN"/>
-              <a:t>索引效率对比</a:t>
+              <a:t>索引效率</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29108525323223489"/>
+          <c:y val="1.7380499079406118E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -212,8 +221,19 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Grid索引</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="15875" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -228,436 +248,268 @@
             </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$208</c:f>
+              <c:f>Sheet1!$B$7:$B$208</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>50000</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100000</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>150000</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200000</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>250000</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>300000</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>350000</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>400000</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>450000</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>500000</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>550000</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>600000</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>650000</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>700000</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>750000</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>800000</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>850000</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>900000</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>950000</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1000000</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1050000</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1100000</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1150000</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1200000</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1250000</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1300000</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1350000</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1400000</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1450000</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1500000</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1550000</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1600000</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1650000</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1700000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1750000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1800000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1850000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1900000</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1950000</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2000000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2050000</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2100000</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2150000</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2200000</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2250000</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2300000</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2350000</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2400000</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2450000</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2500000</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2550000</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2600000</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2650000</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2700000</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2750000</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2800000</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2850000</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2900000</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2950000</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>3000000</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>3050000</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>3100000</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>3150000</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>3200000</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>3250000</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>3300000</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>3350000</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>3400000</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>3450000</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$E$208</c:f>
+              <c:f>Sheet1!$F$7:$F$208</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>25.333333333333332</c:v>
+                  <c:v>5.5E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55</c:v>
+                  <c:v>0.10566666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80.666666666666671</c:v>
+                  <c:v>0.16700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>105.66666666666667</c:v>
+                  <c:v>0.215</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>139.66666666666666</c:v>
+                  <c:v>0.26333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>167</c:v>
+                  <c:v>0.3163333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>200.33333333333334</c:v>
+                  <c:v>0.3686666666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>215</c:v>
+                  <c:v>0.40766666666666668</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>247.33333333333334</c:v>
+                  <c:v>0.45666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>263.33333333333331</c:v>
+                  <c:v>0.52333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>279.33333333333331</c:v>
+                  <c:v>0.55566666666666664</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>316.33333333333331</c:v>
+                  <c:v>0.60066666666666668</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>330.66666666666669</c:v>
+                  <c:v>0.64966666666666661</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>368.66666666666669</c:v>
+                  <c:v>0.71466666666666667</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>406.66666666666669</c:v>
+                  <c:v>0.76100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>407.66666666666669</c:v>
+                  <c:v>0.75800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>459.66666666666669</c:v>
+                  <c:v>0.82533333333333336</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>456.66666666666669</c:v>
+                  <c:v>0.84666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>497</c:v>
+                  <c:v>0.89233333333333342</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>523.33333333333337</c:v>
+                  <c:v>1.0069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>540.66666666666663</c:v>
+                  <c:v>1.05</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>555.66666666666663</c:v>
+                  <c:v>1.0703333333333334</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>663.66666666666663</c:v>
+                  <c:v>1.1586666666666667</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>600.66666666666663</c:v>
+                  <c:v>1.1486666666666667</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>664</c:v>
+                  <c:v>1.2273333333333332</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>649.66666666666663</c:v>
+                  <c:v>1.3566666666666667</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>692.66666666666663</c:v>
+                  <c:v>1.4139999999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>714.66666666666663</c:v>
+                  <c:v>1.3759999999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>871.66666666666663</c:v>
+                  <c:v>1.472</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>761</c:v>
+                  <c:v>1.651</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>736</c:v>
+                  <c:v>1.5820000000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>758</c:v>
+                  <c:v>1.6903333333333332</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>828</c:v>
+                  <c:v>1.6339999999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>825.33333333333337</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>884.33333333333337</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>846.66666666666663</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>930</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>892.33333333333337</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>949.33333333333337</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1007</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1055.6666666666667</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1050</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1044</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1070.3333333333333</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1090</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1158.6666666666667</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1185.3333333333333</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1148.6666666666667</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1242</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1227.3333333333333</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1298.3333333333333</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1356.6666666666667</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1356.3333333333333</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1414</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1430.3333333333333</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1376</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1549</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1472</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1605</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1651</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1450</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1582</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1558.3333333333333</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1690.3333333333333</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1607.6666666666667</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1634</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1765</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1680.6666666666667</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1818</c:v>
+                  <c:v>1.6806666666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -667,8 +519,19 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>STR树索引</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="15875" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -683,436 +546,268 @@
             </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$208</c:f>
+              <c:f>Sheet1!$B$7:$B$208</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>50000</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100000</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>150000</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200000</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>250000</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>300000</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>350000</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>400000</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>450000</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>500000</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>550000</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>600000</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>650000</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>700000</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>750000</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>800000</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>850000</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>900000</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>950000</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1000000</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1050000</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1100000</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1150000</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1200000</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1250000</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1300000</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1350000</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1400000</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1450000</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1500000</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1550000</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1600000</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1650000</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1700000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1750000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1800000</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1850000</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1900000</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1950000</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2000000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2050000</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2100000</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2150000</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2200000</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2250000</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2300000</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2350000</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2400000</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2450000</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2500000</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2550000</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2600000</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2650000</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2700000</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2750000</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2800000</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2850000</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2900000</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2950000</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>3000000</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>3050000</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>3100000</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>3150000</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>3200000</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>3250000</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>3300000</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>3350000</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>3400000</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>3450000</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$F$208</c:f>
+              <c:f>Sheet1!$G$7:$G$208</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>12762</c:v>
+                  <c:v>17.029333333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17029.333333333332</c:v>
+                  <c:v>35.124000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27166.666666666668</c:v>
+                  <c:v>50.337666666666664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35124</c:v>
+                  <c:v>70.465333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44120.333333333336</c:v>
+                  <c:v>87.369</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50337.666666666664</c:v>
+                  <c:v>103.63033333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>59990</c:v>
+                  <c:v>120.883</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70465.333333333328</c:v>
+                  <c:v>132.36433333333335</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>79209.666666666672</c:v>
+                  <c:v>146.52933333333334</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>87369</c:v>
+                  <c:v>158.09566666666666</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>97405.333333333328</c:v>
+                  <c:v>171.60833333333335</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>103630.33333333333</c:v>
+                  <c:v>185.71600000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>111990.33333333333</c:v>
+                  <c:v>199.57300000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>120883</c:v>
+                  <c:v>214.58633333333336</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>128636.66666666667</c:v>
+                  <c:v>230.27366666666666</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>132364.33333333334</c:v>
+                  <c:v>246.57566666666665</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>138769.66666666666</c:v>
+                  <c:v>262.09699999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>146529.33333333334</c:v>
+                  <c:v>277.9733333333333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>151569.66666666666</c:v>
+                  <c:v>290.476</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>158095.66666666666</c:v>
+                  <c:v>301.36966666666666</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>165365</c:v>
+                  <c:v>318.49966666666671</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>171608.33333333334</c:v>
+                  <c:v>333.70600000000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>177187</c:v>
+                  <c:v>344.8533333333333</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>185716</c:v>
+                  <c:v>359.61766666666671</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>191368.66666666666</c:v>
+                  <c:v>374.745</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>199573</c:v>
+                  <c:v>389.67700000000002</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>205734.33333333334</c:v>
+                  <c:v>404.226</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>214586.33333333334</c:v>
+                  <c:v>418.45233333333329</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>221654.66666666666</c:v>
+                  <c:v>433.96833333333331</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>230273.66666666666</c:v>
+                  <c:v>450.73099999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>238385.66666666666</c:v>
+                  <c:v>463.94299999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>246575.66666666666</c:v>
+                  <c:v>480.601</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>254901.33333333334</c:v>
+                  <c:v>492.50099999999998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>262097</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>270249</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>277973.33333333331</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>282777.66666666669</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>290476</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>295086</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>301369.66666666669</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>312581</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>318499.66666666669</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>324444</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>333706</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>339826</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>344853.33333333331</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>353937</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>359617.66666666669</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>365325.66666666669</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>374745</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>382465.33333333331</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>389677</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>391698</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>404226</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>416226.66666666669</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>418452.33333333331</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>426628.33333333331</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>433968.33333333331</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>442844.33333333331</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>450731</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>459029.66666666669</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>463943</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>476838.33333333331</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>480601</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>487843</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>492501</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>499699.66666666669</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>509698</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>515503.33333333331</c:v>
+                  <c:v>509.69799999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1127,17 +822,74 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="119935744"/>
-        <c:axId val="119940640"/>
+        <c:axId val="173344096"/>
+        <c:axId val="173344640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119935744"/>
+        <c:axId val="173344096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>数据点数（单位：十万）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1175,7 +927,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119940640"/>
+        <c:crossAx val="173344640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1183,7 +935,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119940640"/>
+        <c:axId val="173344640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1224,13 +976,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>时间：</a:t>
+                  <a:t>时间（单位：秒）</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>ms</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1295,7 +1042,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119935744"/>
+        <c:crossAx val="173344096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1308,7 +1055,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1922,16 +1669,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2221,4969 +1968,5145 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:P208"/>
+  <dimension ref="A1:Q208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O70" sqref="O70"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q139" sqref="Q139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>50000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>25</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>20115</v>
       </c>
     </row>
-    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>50000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>25</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>9089</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>50000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>26</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>9082</v>
-      </c>
-      <c r="E4">
-        <f>AVERAGE(C2:C4)</f>
-        <v>25.333333333333332</v>
       </c>
       <c r="F4">
         <f>AVERAGE(D2:D4)</f>
+        <v>25.333333333333332</v>
+      </c>
+      <c r="G4">
+        <f>AVERAGE(E2:E4)</f>
         <v>12762</v>
       </c>
-      <c r="G4">
-        <f>F4/E4</f>
+      <c r="H4">
+        <f>G4/F4</f>
         <v>503.76315789473688</v>
       </c>
     </row>
-    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>0</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>100000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>63</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>16784</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>100000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>51</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>17355</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>55</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>17029.333333333332</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>309.62424242424242</v>
       </c>
     </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>100000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>51</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>16949</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>150000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>83</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>26832</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>80.666666666666671</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>27166.666666666668</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>336.77685950413223</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7">
+        <f>C7/100000</f>
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>100000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>51</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>17355</v>
       </c>
-      <c r="E7">
-        <f>AVERAGE(C5:C7)</f>
-        <v>55</v>
-      </c>
       <c r="F7">
-        <f>AVERAGE(D5:D7)</f>
-        <v>17029.333333333332</v>
+        <f>AVERAGE(D5:D7)/1000</f>
+        <v>5.5E-2</v>
       </c>
       <c r="G7">
-        <f>F7/E7</f>
+        <f>AVERAGE(E5:E7)/1000</f>
+        <v>17.029333333333334</v>
+      </c>
+      <c r="H7">
+        <f>G7/F7</f>
         <v>309.62424242424242</v>
       </c>
     </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>0</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>150000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>83</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>27743</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>250000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>140</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>100000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>51</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>17355</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>55</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>17029.333333333332</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>309.62424242424242</v>
       </c>
     </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>150000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>76</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>26925</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>300000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>167</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>150000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>83</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>26832</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>80.666666666666671</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>27166.666666666668</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>336.77685950413223</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>150000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>83</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>26832</v>
-      </c>
-      <c r="E10">
-        <f>AVERAGE(C8:C10)</f>
-        <v>80.666666666666671</v>
       </c>
       <c r="F10">
         <f>AVERAGE(D8:D10)</f>
+        <v>80.666666666666671</v>
+      </c>
+      <c r="G10">
+        <f>AVERAGE(E8:E10)</f>
         <v>27166.666666666668</v>
       </c>
-      <c r="G10">
-        <f>F10/E10</f>
+      <c r="H10">
+        <f>G10/F10</f>
         <v>336.77685950413223</v>
       </c>
     </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>0</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>200000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>103</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>35039</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>400000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>221</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>250000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>140</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>43637</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>139.66666666666666</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>44120.333333333336</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>315.89737470167069</v>
       </c>
     </row>
-    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>200000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>102</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>34856</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>450000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>248</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>300000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>167</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>50730</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>167</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>50337.666666666664</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>301.42315369261473</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13">
+        <f>C13/100000</f>
+        <v>2</v>
+      </c>
+      <c r="C13">
         <v>200000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>112</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>35477</v>
       </c>
-      <c r="E13">
-        <f>AVERAGE(C11:C13)</f>
-        <v>105.66666666666667</v>
-      </c>
       <c r="F13">
-        <f>AVERAGE(D11:D13)</f>
-        <v>35124</v>
+        <f>AVERAGE(D11:D13)/1000</f>
+        <v>0.10566666666666667</v>
       </c>
       <c r="G13">
-        <f>F13/E13</f>
+        <f>AVERAGE(E11:E13)/1000</f>
+        <v>35.124000000000002</v>
+      </c>
+      <c r="H13">
+        <f>G13/F13</f>
         <v>332.40378548895899</v>
       </c>
     </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>0</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>250000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>139</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>45345</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>550000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>100000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>51</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>17355</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>55</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>17029.333330000001</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>309.62424240000001</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>327.74573643410849</v>
       </c>
     </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>250000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>140</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>43379</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>600000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>150000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>83</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>26832</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>80.666666669999998</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>27166.666669999999</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>336.7768595</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>320.25471698113211</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>250000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>140</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>43637</v>
-      </c>
-      <c r="E16">
-        <f>AVERAGE(C14:C16)</f>
-        <v>139.66666666666666</v>
       </c>
       <c r="F16">
         <f>AVERAGE(D14:D16)</f>
+        <v>139.66666666666666</v>
+      </c>
+      <c r="G16">
+        <f>AVERAGE(E14:E16)</f>
         <v>44120.333333333336</v>
       </c>
-      <c r="G16">
-        <f>F16/E16</f>
+      <c r="H16">
+        <f>G16/F16</f>
         <v>315.89737470167069</v>
       </c>
     </row>
-    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>0</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>300000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>167</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>50174</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>700000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>250000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>140</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>43637</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>139.66666670000001</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>44120.333330000001</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>315.8973747</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>348.70644391408115</v>
       </c>
     </row>
-    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>1</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>300000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>167</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>50109</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>750000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>300000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>167</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>50730</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>167</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>50337.666669999999</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>301.4231537</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>327.59852476290831</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19">
+        <f>C19/100000</f>
+        <v>3</v>
+      </c>
+      <c r="C19">
         <v>300000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>167</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>50730</v>
       </c>
-      <c r="E19">
-        <f>AVERAGE(C17:C19)</f>
-        <v>167</v>
-      </c>
       <c r="F19">
-        <f>AVERAGE(D17:D19)</f>
-        <v>50337.666666666664</v>
+        <f>AVERAGE(D17:D19)/1000</f>
+        <v>0.16700000000000001</v>
       </c>
       <c r="G19">
-        <f>F19/E19</f>
+        <f>AVERAGE(E17:E19)/1000</f>
+        <v>50.337666666666664</v>
+      </c>
+      <c r="H19">
+        <f>G19/F19</f>
         <v>301.42315369261473</v>
       </c>
     </row>
-    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>0</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>350000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>211</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>59813</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>850000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>400000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>221</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>70082</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>215</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>70465.333329999994</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>327.7457364</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>327.89240506329111</v>
       </c>
     </row>
-    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>1</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>350000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>195</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>59933</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>900000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>450000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>248</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>78766</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>247.33333329999999</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>79209.666670000006</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>320.25471700000003</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>316.31967213114751</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>2</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>350000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>195</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>60224</v>
-      </c>
-      <c r="E22">
-        <f>AVERAGE(C20:C22)</f>
-        <v>200.33333333333334</v>
       </c>
       <c r="F22">
         <f>AVERAGE(D20:D22)</f>
+        <v>200.33333333333334</v>
+      </c>
+      <c r="G22">
+        <f>AVERAGE(E20:E22)</f>
         <v>59990</v>
       </c>
-      <c r="G22">
-        <f>F22/E22</f>
+      <c r="H22">
+        <f>G22/F22</f>
         <v>299.45091514143093</v>
       </c>
     </row>
-    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>0</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>400000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>202</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>70454</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>1000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>550000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>298</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>98496</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>279.33333329999999</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>97405.333329999994</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>348.70644390000001</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>301.89195068890496</v>
       </c>
     </row>
-    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>1</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>400000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>222</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>70860</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>1050000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>600000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>326</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>104053</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>316.33333329999999</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>103630.3333</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>327.59852480000001</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>320.86715328467153</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="B25">
+        <f>C25/100000</f>
+        <v>4</v>
+      </c>
+      <c r="C25">
         <v>400000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>221</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>70082</v>
       </c>
-      <c r="E25">
-        <f>AVERAGE(C23:C25)</f>
-        <v>215</v>
-      </c>
       <c r="F25">
-        <f>AVERAGE(D23:D25)</f>
-        <v>70465.333333333328</v>
+        <f>AVERAGE(D23:D25)/1000</f>
+        <v>0.215</v>
       </c>
       <c r="G25">
-        <f>F25/E25</f>
-        <v>327.74573643410849</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+        <f>AVERAGE(E23:E25)/1000</f>
+        <v>70.465333333333334</v>
+      </c>
+      <c r="H25">
+        <f>G25/F25</f>
+        <v>327.74573643410855</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>0</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>450000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>247</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>80079</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>1150000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>700000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>380</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>120950</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>368.66666670000001</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>120883</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>327.89240510000002</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>302.09363057324839</v>
       </c>
     </row>
-    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>1</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>450000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>247</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>78784</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>1200000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>750000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>406</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>129086</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>406.66666670000001</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>128636.6667</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>316.31967209999999</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>305.85388409371149</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>2</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>450000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>248</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>78766</v>
-      </c>
-      <c r="E28">
-        <f>AVERAGE(C26:C28)</f>
-        <v>247.33333333333334</v>
       </c>
       <c r="F28">
         <f>AVERAGE(D26:D28)</f>
+        <v>247.33333333333334</v>
+      </c>
+      <c r="G28">
+        <f>AVERAGE(E26:E28)</f>
         <v>79209.666666666672</v>
       </c>
-      <c r="G28">
-        <f>F28/E28</f>
+      <c r="H28">
+        <f>G28/F28</f>
         <v>320.25471698113211</v>
       </c>
     </row>
-    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>0</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>500000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>271</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>87679</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>1300000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>850000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>459</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>139522</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>459.66666670000001</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>138769.6667</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>301.8919507</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>266.98191863385233</v>
       </c>
     </row>
-    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>1</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>500000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>272</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>87012</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>1350000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>900000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>442</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>146971</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>456.66666670000001</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>146529.3333</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>320.86715329999998</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>309.18312985571589</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>2</v>
       </c>
       <c r="B31">
+        <f>C31/100000</f>
+        <v>5</v>
+      </c>
+      <c r="C31">
         <v>500000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>247</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>87416</v>
       </c>
-      <c r="E31">
-        <f>AVERAGE(C29:C31)</f>
-        <v>263.33333333333331</v>
-      </c>
       <c r="F31">
-        <f>AVERAGE(D29:D31)</f>
-        <v>87369</v>
+        <f>AVERAGE(D29:D31)/1000</f>
+        <v>0.26333333333333331</v>
       </c>
       <c r="G31">
-        <f>F31/E31</f>
+        <f>AVERAGE(E29:E31)/1000</f>
+        <v>87.369</v>
+      </c>
+      <c r="H31">
+        <f>G31/F31</f>
         <v>331.78101265822789</v>
       </c>
     </row>
-    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>0</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>550000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>270</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>96847</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>1450000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>1000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>491</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>158869</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>523.33333330000005</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>158095.6667</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>302.09363059999998</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>307.19291944586968</v>
       </c>
     </row>
-    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>1</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>550000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>270</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>96873</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>1500000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>1050000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>525</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>165674</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>540.66666669999995</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>165365</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>305.85388410000002</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>297.01780558229069</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>2</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>550000</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>298</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>98496</v>
-      </c>
-      <c r="E34">
-        <f>AVERAGE(C32:C34)</f>
-        <v>279.33333333333331</v>
       </c>
       <c r="F34">
         <f>AVERAGE(D32:D34)</f>
+        <v>279.33333333333331</v>
+      </c>
+      <c r="G34">
+        <f>AVERAGE(E32:E34)</f>
         <v>97405.333333333328</v>
       </c>
-      <c r="G34">
-        <f>F34/E34</f>
+      <c r="H34">
+        <f>G34/F34</f>
         <v>348.70644391408115</v>
       </c>
     </row>
-    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>0</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>600000</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>297</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>103517</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>1600000</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>1150000</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>812</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>177117</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>663.66666669999995</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>177187</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>266.98191859999997</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>254.28833652007648</v>
       </c>
     </row>
-    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>1</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>600000</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>326</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>103321</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>1650000</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>1200000</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>582</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>187340</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>600.66666669999995</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>185716</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>309.18312989999998</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>302.59351730179588</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>2</v>
       </c>
       <c r="B37">
+        <f>C37/100000</f>
+        <v>6</v>
+      </c>
+      <c r="C37">
         <v>600000</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>326</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>104053</v>
       </c>
-      <c r="E37">
-        <f>AVERAGE(C35:C37)</f>
-        <v>316.33333333333331</v>
-      </c>
       <c r="F37">
-        <f>AVERAGE(D35:D37)</f>
-        <v>103630.33333333333</v>
+        <f>AVERAGE(D35:D37)/1000</f>
+        <v>0.3163333333333333</v>
       </c>
       <c r="G37">
-        <f>F37/E37</f>
+        <f>AVERAGE(E35:E37)/1000</f>
+        <v>103.63033333333333</v>
+      </c>
+      <c r="H37">
+        <f>G37/F37</f>
         <v>327.59852476290831</v>
       </c>
     </row>
-    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>0</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>650000</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>352</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>112042</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>1750000</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>1300000</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>629</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>199504</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>649.66666669999995</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>199573</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>307.19291939999999</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>325.29771328056285</v>
       </c>
     </row>
-    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>1</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>650000</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>320</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>112940</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>1800000</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>1350000</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>714</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>206673</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>692.66666669999995</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>205734.3333</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>297.01780559999997</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>307.85185185185185</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>2</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>650000</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>320</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>110989</v>
-      </c>
-      <c r="E40">
-        <f>AVERAGE(C38:C40)</f>
-        <v>330.66666666666669</v>
       </c>
       <c r="F40">
         <f>AVERAGE(D38:D40)</f>
+        <v>330.66666666666669</v>
+      </c>
+      <c r="G40">
+        <f>AVERAGE(E38:E40)</f>
         <v>111990.33333333333</v>
       </c>
-      <c r="G40">
-        <f>F40/E40</f>
+      <c r="H40">
+        <f>G40/F40</f>
         <v>338.68044354838707</v>
       </c>
     </row>
-    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>0</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>700000</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>346</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>120056</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>1900000</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>1450000</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>931</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>222159</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>871.66666669999995</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>221654.6667</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>254.28833650000001</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>305.59630606860156</v>
       </c>
     </row>
-    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>1</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>700000</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>380</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>121643</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>1950000</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>1500000</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>784</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>229589</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>761</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>230273.6667</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>302.59351729999997</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>328.31496062992125</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>2</v>
       </c>
       <c r="B43">
+        <f>C43/100000</f>
+        <v>7</v>
+      </c>
+      <c r="C43">
         <v>700000</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>380</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>120950</v>
       </c>
-      <c r="E43">
-        <f>AVERAGE(C41:C43)</f>
-        <v>368.66666666666669</v>
-      </c>
       <c r="F43">
-        <f>AVERAGE(D41:D43)</f>
-        <v>120883</v>
+        <f>AVERAGE(D41:D43)/1000</f>
+        <v>0.3686666666666667</v>
       </c>
       <c r="G43">
-        <f>F43/E43</f>
+        <f>AVERAGE(E41:E43)/1000</f>
+        <v>120.883</v>
+      </c>
+      <c r="H43">
+        <f>G43/F43</f>
         <v>327.89240506329111</v>
       </c>
     </row>
-    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>0</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>750000</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>407</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>128028</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>2050000</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>1600000</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>757</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>247808</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>758</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>246575.6667</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>325.2977133</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>325.52409413522599</v>
       </c>
     </row>
-    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>1</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>750000</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>407</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>128796</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>2100000</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>1650000</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>853</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>252148</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>828</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>254901.3333</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>307.85185189999999</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>310.83497191011236</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>2</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>750000</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>406</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>129086</v>
-      </c>
-      <c r="E46">
-        <f>AVERAGE(C44:C46)</f>
-        <v>406.66666666666669</v>
       </c>
       <c r="F46">
         <f>AVERAGE(D44:D46)</f>
+        <v>406.66666666666669</v>
+      </c>
+      <c r="G46">
+        <f>AVERAGE(E44:E46)</f>
         <v>128636.66666666667</v>
       </c>
-      <c r="G46">
-        <f>F46/E46</f>
+      <c r="H46">
+        <f>G46/F46</f>
         <v>316.31967213114751</v>
       </c>
     </row>
-    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>0</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>800000</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>433</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>131968</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>2200000</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>1750000</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>825</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>271173</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>884.33333330000005</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>270249</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>305.59630609999999</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>296.09820018945373</v>
       </c>
     </row>
-    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>1</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>800000</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>395</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>132824</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>2250000</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>1800000</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>847</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>277516</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>846.66666669999995</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>277973.3333</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>328.31496060000001</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>303.33301587301588</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>2</v>
       </c>
       <c r="B49">
+        <f>C49/100000</f>
+        <v>8</v>
+      </c>
+      <c r="C49">
         <v>800000</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>395</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>132301</v>
       </c>
-      <c r="E49">
-        <f>AVERAGE(C47:C49)</f>
-        <v>407.66666666666669</v>
-      </c>
       <c r="F49">
-        <f>AVERAGE(D47:D49)</f>
-        <v>132364.33333333334</v>
+        <f>AVERAGE(D47:D49)/1000</f>
+        <v>0.40766666666666668</v>
       </c>
       <c r="G49">
-        <f>F49/E49</f>
+        <f>AVERAGE(E47:E49)/1000</f>
+        <v>132.36433333333335</v>
+      </c>
+      <c r="H49">
+        <f>G49/F49</f>
         <v>324.68765331152906</v>
       </c>
     </row>
-    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>0</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>850000</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>460</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>138412</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>2350000</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>1900000</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>892</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>288179</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>892.33333330000005</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>290476</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>325.52409410000001</v>
       </c>
-      <c r="P50">
+      <c r="Q50">
         <v>311.77763936468392</v>
       </c>
     </row>
-    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>1</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>850000</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>460</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>138375</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>2400000</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>1950000</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>914</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>292171</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>949.33333330000005</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>295086</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>310.83497190000003</v>
       </c>
-      <c r="P51">
+      <c r="Q51">
         <v>311.7669724770642</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>2</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>850000</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>459</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>139522</v>
-      </c>
-      <c r="E52">
-        <f>AVERAGE(C50:C52)</f>
-        <v>459.66666666666669</v>
       </c>
       <c r="F52">
         <f>AVERAGE(D50:D52)</f>
+        <v>459.66666666666669</v>
+      </c>
+      <c r="G52">
+        <f>AVERAGE(E50:E52)</f>
         <v>138769.66666666666</v>
       </c>
-      <c r="G52">
-        <f>F52/E52</f>
+      <c r="H52">
+        <f>G52/F52</f>
         <v>301.89195068890496</v>
       </c>
     </row>
-    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>0</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>900000</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>486</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>146705</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>2500000</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>2050000</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <v>1057</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>311547</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>1055.666667</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>312581</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>296.09820020000001</v>
       </c>
-      <c r="P53">
+      <c r="Q53">
         <v>298.59701912260971</v>
       </c>
     </row>
-    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>1</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>900000</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>442</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>145912</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>2550000</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>2100000</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>1083</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>316681</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>1050</v>
       </c>
-      <c r="N54">
+      <c r="O54">
         <v>318499.6667</v>
       </c>
-      <c r="O54">
+      <c r="P54">
         <v>303.33301590000002</v>
       </c>
-      <c r="P54">
+      <c r="Q54">
         <v>313.07399883923387</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>2</v>
       </c>
       <c r="B55">
+        <f>C55/100000</f>
+        <v>9</v>
+      </c>
+      <c r="C55">
         <v>900000</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>442</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>146971</v>
       </c>
-      <c r="E55">
-        <f>AVERAGE(C53:C55)</f>
-        <v>456.66666666666669</v>
-      </c>
       <c r="F55">
-        <f>AVERAGE(D53:D55)</f>
-        <v>146529.33333333334</v>
+        <f>AVERAGE(D53:D55)/1000</f>
+        <v>0.45666666666666667</v>
       </c>
       <c r="G55">
-        <f>F55/E55</f>
+        <f>AVERAGE(E53:E55)/1000</f>
+        <v>146.52933333333334</v>
+      </c>
+      <c r="H55">
+        <f>G55/F55</f>
         <v>320.86715328467153</v>
       </c>
     </row>
-    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>0</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>950000</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>512</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>152058</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>2650000</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>2200000</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>1031</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>335958</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>1070.333333</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>333706</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <v>311.7776394</v>
       </c>
-      <c r="P56">
+      <c r="Q56">
         <v>305.33269961977186</v>
       </c>
     </row>
-    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>1</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>950000</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>467</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>151647</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>2700000</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>2250000</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <v>1054</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>338523</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>1090</v>
       </c>
-      <c r="N57">
+      <c r="O57">
         <v>339826</v>
       </c>
-      <c r="O57">
+      <c r="P57">
         <v>311.76697250000001</v>
       </c>
-      <c r="P57">
+      <c r="Q57">
         <v>294.58177150192557</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>2</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>950000</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>512</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>151004</v>
       </c>
-      <c r="E58">
-        <f>AVERAGE(C56:C58)</f>
+      <c r="F58">
+        <f>AVERAGE(D56:D58)</f>
         <v>497</v>
       </c>
-      <c r="F58">
-        <f t="shared" ref="F58" si="0">AVERAGE(D56:D58)</f>
+      <c r="G58">
+        <f t="shared" ref="G58" si="0">AVERAGE(E56:E58)</f>
         <v>151569.66666666666</v>
       </c>
-      <c r="G58">
-        <f>F58/E58</f>
+      <c r="H58">
+        <f>G58/F58</f>
         <v>304.96914822266933</v>
       </c>
     </row>
-    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>0</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>1000000</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>540</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>157202</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>2800000</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>2350000</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <v>1216</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>354378</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>1185.333333</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <v>353937</v>
       </c>
-      <c r="O59">
+      <c r="P59">
         <v>298.59701910000001</v>
       </c>
-      <c r="P59">
+      <c r="Q59">
         <v>288.7918407471123</v>
       </c>
     </row>
-    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>1</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>1000000</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>539</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>158216</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>2850000</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>2400000</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>1150</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>357484</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>1148.666667</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <v>359617.6667</v>
       </c>
-      <c r="O60">
+      <c r="P60">
         <v>313.07399880000003</v>
       </c>
-      <c r="P60">
+      <c r="Q60">
         <v>285.87411598302685</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>2</v>
       </c>
       <c r="B61">
+        <f>C61/100000</f>
+        <v>10</v>
+      </c>
+      <c r="C61">
         <v>1000000</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>491</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>158869</v>
       </c>
-      <c r="E61">
-        <f t="shared" ref="E61" si="1">AVERAGE(C59:C61)</f>
-        <v>523.33333333333337</v>
-      </c>
       <c r="F61">
-        <f t="shared" ref="F61" si="2">AVERAGE(D59:D61)</f>
-        <v>158095.66666666666</v>
+        <f>AVERAGE(D59:D61)/1000</f>
+        <v>0.52333333333333332</v>
       </c>
       <c r="G61">
-        <f>F61/E61</f>
+        <f>AVERAGE(E59:E61)/1000</f>
+        <v>158.09566666666666</v>
+      </c>
+      <c r="H61">
+        <f>G61/F61</f>
         <v>302.09363057324839</v>
       </c>
     </row>
-    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>0</v>
       </c>
-      <c r="B62">
+      <c r="C62">
         <v>1050000</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>530</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>164826</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>2950000</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>2500000</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <v>1182</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>376921</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>1227.333333</v>
       </c>
-      <c r="N62">
+      <c r="O62">
         <v>374745</v>
       </c>
-      <c r="O62">
+      <c r="P62">
         <v>305.33269960000001</v>
       </c>
-      <c r="P62">
+      <c r="Q62">
         <v>304.10780038759691</v>
       </c>
     </row>
-    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>1</v>
       </c>
-      <c r="B63">
+      <c r="C63">
         <v>1050000</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>567</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>165595</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>3000000</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>2550000</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>1225</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>382887</v>
       </c>
-      <c r="M63">
+      <c r="N63">
         <v>1298.333333</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <v>382465.3333</v>
       </c>
-      <c r="O63">
+      <c r="P63">
         <v>294.5817715</v>
       </c>
-      <c r="P63">
+      <c r="Q63">
         <v>275.42177749085431</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>2</v>
       </c>
-      <c r="B64">
+      <c r="C64">
         <v>1050000</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>525</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>165674</v>
       </c>
-      <c r="E64">
-        <f t="shared" ref="E64" si="3">AVERAGE(C62:C64)</f>
+      <c r="F64">
+        <f t="shared" ref="F64" si="1">AVERAGE(D62:D64)</f>
         <v>540.66666666666663</v>
       </c>
-      <c r="F64">
-        <f t="shared" ref="F64" si="4">AVERAGE(D62:D64)</f>
+      <c r="G64">
+        <f t="shared" ref="G64" si="2">AVERAGE(E62:E64)</f>
         <v>165365</v>
       </c>
-      <c r="G64">
-        <f>F64/E64</f>
+      <c r="H64">
+        <f>G64/F64</f>
         <v>305.85388409371149</v>
       </c>
     </row>
-    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>0</v>
       </c>
-      <c r="B65">
+      <c r="C65">
         <v>1100000</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>538</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>172508</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>3100000</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>2650000</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <v>1388</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>395506</v>
       </c>
-      <c r="M65">
+      <c r="N65">
         <v>1356.333333</v>
       </c>
-      <c r="N65">
+      <c r="O65">
         <v>391698</v>
       </c>
-      <c r="O65">
+      <c r="P65">
         <v>288.79184070000002</v>
       </c>
-      <c r="P65">
+      <c r="Q65">
         <v>275.91547248182763</v>
       </c>
     </row>
-    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>1</v>
       </c>
-      <c r="B66">
+      <c r="C66">
         <v>1100000</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>591</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>171761</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>3150000</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>2700000</v>
       </c>
-      <c r="K66">
+      <c r="L66">
         <v>1410</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>402249</v>
       </c>
-      <c r="M66">
+      <c r="N66">
         <v>1414</v>
       </c>
-      <c r="N66">
+      <c r="O66">
         <v>404226</v>
       </c>
-      <c r="O66">
+      <c r="P66">
         <v>285.87411600000001</v>
       </c>
-      <c r="P66">
+      <c r="Q66">
         <v>273.00484554815262</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>2</v>
       </c>
       <c r="B67">
+        <f>C67/100000</f>
+        <v>11</v>
+      </c>
+      <c r="C67">
         <v>1100000</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>538</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>170556</v>
       </c>
-      <c r="E67">
-        <f t="shared" ref="E67" si="5">AVERAGE(C65:C67)</f>
-        <v>555.66666666666663</v>
-      </c>
       <c r="F67">
-        <f t="shared" ref="F67" si="6">AVERAGE(D65:D67)</f>
-        <v>171608.33333333334</v>
+        <f>AVERAGE(D65:D67)/1000</f>
+        <v>0.55566666666666664</v>
       </c>
       <c r="G67">
-        <f>F67/E67</f>
+        <f>AVERAGE(E65:E67)/1000</f>
+        <v>171.60833333333335</v>
+      </c>
+      <c r="H67">
+        <f>G67/F67</f>
         <v>308.83323335332938</v>
       </c>
     </row>
-    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>0</v>
       </c>
-      <c r="B68">
+      <c r="C68">
         <v>1150000</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>617</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>176902</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>3250000</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>2800000</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <v>1474</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>418456</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>1376</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <v>418452.3333</v>
       </c>
-      <c r="O68">
+      <c r="P68">
         <v>304.10780039999997</v>
       </c>
-      <c r="P68">
+      <c r="Q68">
         <v>293.26359039190896</v>
       </c>
     </row>
-    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>1</v>
       </c>
-      <c r="B69">
+      <c r="C69">
         <v>1150000</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>562</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>177542</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>3300000</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>2850000</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>1604</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>426322</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>1549</v>
       </c>
-      <c r="N69">
+      <c r="O69">
         <v>426628.3333</v>
       </c>
-      <c r="O69">
+      <c r="P69">
         <v>275.42177750000002</v>
       </c>
-      <c r="P69">
+      <c r="Q69">
         <v>305.99251336898396</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>2</v>
       </c>
-      <c r="B70">
+      <c r="C70">
         <v>1150000</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>812</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>177117</v>
       </c>
-      <c r="E70">
-        <f t="shared" ref="E70" si="7">AVERAGE(C68:C70)</f>
+      <c r="F70">
+        <f t="shared" ref="F70" si="3">AVERAGE(D68:D70)</f>
         <v>663.66666666666663</v>
       </c>
-      <c r="F70">
-        <f t="shared" ref="F70" si="8">AVERAGE(D68:D70)</f>
+      <c r="G70">
+        <f t="shared" ref="G70" si="4">AVERAGE(E68:E70)</f>
         <v>177187</v>
       </c>
-      <c r="G70">
-        <f>F70/E70</f>
+      <c r="H70">
+        <f>G70/F70</f>
         <v>266.98191863385233</v>
       </c>
     </row>
-    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>0</v>
       </c>
-      <c r="B71">
+      <c r="C71">
         <v>1200000</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>639</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>183549</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>3400000</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>2950000</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <v>1399</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>439631</v>
       </c>
-      <c r="M71">
+      <c r="N71">
         <v>1605</v>
       </c>
-      <c r="N71">
+      <c r="O71">
         <v>442844.3333</v>
       </c>
-      <c r="O71">
+      <c r="P71">
         <v>275.91547250000002</v>
       </c>
-      <c r="P71">
+      <c r="Q71">
         <v>303.44785403275966</v>
       </c>
     </row>
-    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>1</v>
       </c>
-      <c r="B72">
+      <c r="C72">
         <v>1200000</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>581</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>186259</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>3450000</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>3000000</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <v>1585</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>447042</v>
       </c>
-      <c r="M72">
+      <c r="N72">
         <v>1651</v>
       </c>
-      <c r="N72">
+      <c r="O72">
         <v>450731</v>
       </c>
-      <c r="O72">
+      <c r="P72">
         <v>273.00484549999999</v>
       </c>
-      <c r="P72">
+      <c r="Q72">
         <v>301.40820073439414</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>2</v>
       </c>
       <c r="B73">
+        <f>C73/100000</f>
+        <v>12</v>
+      </c>
+      <c r="C73">
         <v>1200000</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>582</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>187340</v>
       </c>
-      <c r="E73">
-        <f t="shared" ref="E73" si="9">AVERAGE(C71:C73)</f>
-        <v>600.66666666666663</v>
-      </c>
       <c r="F73">
-        <f t="shared" ref="F73" si="10">AVERAGE(D71:D73)</f>
-        <v>185716</v>
+        <f>AVERAGE(D71:D73)/1000</f>
+        <v>0.60066666666666668</v>
       </c>
       <c r="G73">
-        <f>F73/E73</f>
+        <f>AVERAGE(E71:E73)/1000</f>
+        <v>185.71600000000001</v>
+      </c>
+      <c r="H73">
+        <f>G73/F73</f>
         <v>309.18312985571589</v>
       </c>
     </row>
-    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>0</v>
       </c>
-      <c r="B74">
+      <c r="C74">
         <v>1250000</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>664</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>190872</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>3100000</v>
       </c>
-      <c r="K74">
+      <c r="L74">
         <v>1623</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>462343</v>
       </c>
-      <c r="M74">
+      <c r="N74">
         <v>1582</v>
       </c>
-      <c r="N74">
+      <c r="O74">
         <v>463943</v>
       </c>
-      <c r="O74">
+      <c r="P74">
         <v>293.2635904</v>
       </c>
-      <c r="P74">
+      <c r="Q74">
         <v>303.27132090440301</v>
       </c>
     </row>
-    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>1</v>
       </c>
-      <c r="B75">
+      <c r="C75">
         <v>1250000</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>664</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>190887</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>3150000</v>
       </c>
-      <c r="K75">
+      <c r="L75">
         <v>1508</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <v>475168</v>
       </c>
-      <c r="M75">
+      <c r="N75">
         <v>1558.333333</v>
       </c>
-      <c r="N75">
+      <c r="O75">
         <v>476838.3333</v>
       </c>
-      <c r="O75">
+      <c r="P75">
         <v>305.99251340000001</v>
       </c>
-      <c r="P75">
+      <c r="Q75">
         <v>283.55518885221852</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>2</v>
       </c>
-      <c r="B76">
+      <c r="C76">
         <v>1250000</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>664</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>192347</v>
       </c>
-      <c r="E76">
-        <f t="shared" ref="E76" si="11">AVERAGE(C74:C76)</f>
+      <c r="F76">
+        <f t="shared" ref="F76" si="5">AVERAGE(D74:D76)</f>
         <v>664</v>
       </c>
-      <c r="F76">
-        <f t="shared" ref="F76" si="12">AVERAGE(D74:D76)</f>
+      <c r="G76">
+        <f t="shared" ref="G76" si="6">AVERAGE(E74:E76)</f>
         <v>191368.66666666666</v>
       </c>
-      <c r="G76">
-        <f>F76/E76</f>
+      <c r="H76">
+        <f>G76/F76</f>
         <v>288.20582329317267</v>
       </c>
     </row>
-    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>0</v>
       </c>
-      <c r="B77">
+      <c r="C77">
         <v>1300000</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>630</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>198799</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>3250000</v>
       </c>
-      <c r="K77">
+      <c r="L77">
         <v>1560</v>
       </c>
-      <c r="L77">
+      <c r="M77">
         <v>492782</v>
       </c>
-      <c r="M77">
+      <c r="N77">
         <v>1607.666667</v>
       </c>
-      <c r="N77">
+      <c r="O77">
         <v>487843</v>
       </c>
-      <c r="O77">
+      <c r="P77">
         <v>303.44785400000001</v>
       </c>
     </row>
-    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>1</v>
       </c>
-      <c r="B78">
+      <c r="C78">
         <v>1300000</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>690</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>200416</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>3300000</v>
       </c>
-      <c r="K78">
+      <c r="L78">
         <v>1582</v>
       </c>
-      <c r="L78">
+      <c r="M78">
         <v>495501</v>
       </c>
-      <c r="M78">
+      <c r="N78">
         <v>1634</v>
       </c>
-      <c r="N78">
+      <c r="O78">
         <v>492501</v>
       </c>
-      <c r="O78">
+      <c r="P78">
         <v>301.40820070000001</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>2</v>
       </c>
       <c r="B79">
+        <f>C79/100000</f>
+        <v>13</v>
+      </c>
+      <c r="C79">
         <v>1300000</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>629</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>199504</v>
       </c>
-      <c r="E79">
-        <f t="shared" ref="E79" si="13">AVERAGE(C77:C79)</f>
-        <v>649.66666666666663</v>
-      </c>
       <c r="F79">
-        <f t="shared" ref="F79" si="14">AVERAGE(D77:D79)</f>
-        <v>199573</v>
+        <f>AVERAGE(D77:D79)/1000</f>
+        <v>0.64966666666666661</v>
       </c>
       <c r="G79">
-        <f>F79/E79</f>
-        <v>307.19291944586968</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
+        <f>AVERAGE(E77:E79)/1000</f>
+        <v>199.57300000000001</v>
+      </c>
+      <c r="H79">
+        <f>G79/F79</f>
+        <v>307.19291944586973</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>0</v>
       </c>
-      <c r="B80">
+      <c r="C80">
         <v>1350000</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>651</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>204718</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>3400000</v>
       </c>
-      <c r="K80">
+      <c r="L80">
         <v>1801</v>
       </c>
-      <c r="L80">
+      <c r="M80">
         <v>512898</v>
       </c>
-      <c r="M80">
+      <c r="N80">
         <v>1680.666667</v>
       </c>
-      <c r="N80">
+      <c r="O80">
         <v>509698</v>
       </c>
-      <c r="O80">
+      <c r="P80">
         <v>303.27132089999998</v>
       </c>
     </row>
-    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>1</v>
       </c>
-      <c r="B81">
+      <c r="C81">
         <v>1350000</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>713</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>205812</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>3450000</v>
       </c>
-      <c r="K81">
+      <c r="L81">
         <v>1817</v>
       </c>
-      <c r="L81">
+      <c r="M81">
         <v>513269</v>
       </c>
-      <c r="M81">
+      <c r="N81">
         <v>1818</v>
       </c>
-      <c r="N81">
+      <c r="O81">
         <v>515503.3333</v>
       </c>
-      <c r="O81">
+      <c r="P81">
         <v>283.55518890000002</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>2</v>
       </c>
-      <c r="B82">
+      <c r="C82">
         <v>1350000</v>
       </c>
-      <c r="C82">
+      <c r="D82">
         <v>714</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>206673</v>
       </c>
-      <c r="E82">
-        <f t="shared" ref="E82" si="15">AVERAGE(C80:C82)</f>
+      <c r="F82">
+        <f t="shared" ref="F82" si="7">AVERAGE(D80:D82)</f>
         <v>692.66666666666663</v>
       </c>
-      <c r="F82">
-        <f t="shared" ref="F82" si="16">AVERAGE(D80:D82)</f>
+      <c r="G82">
+        <f t="shared" ref="G82" si="8">AVERAGE(E80:E82)</f>
         <v>205734.33333333334</v>
       </c>
-      <c r="G82">
-        <f>F82/E82</f>
+      <c r="H82">
+        <f>G82/F82</f>
         <v>297.01780558229069</v>
       </c>
     </row>
-    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>0</v>
       </c>
-      <c r="B83">
+      <c r="C83">
         <v>1400000</v>
       </c>
-      <c r="C83">
+      <c r="D83">
         <v>671</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>215030</v>
       </c>
     </row>
-    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>1</v>
       </c>
-      <c r="B84">
+      <c r="C84">
         <v>1400000</v>
       </c>
-      <c r="C84">
+      <c r="D84">
         <v>737</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>213920</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>2</v>
       </c>
       <c r="B85">
+        <f>C85/100000</f>
+        <v>14</v>
+      </c>
+      <c r="C85">
         <v>1400000</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>736</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>214809</v>
       </c>
-      <c r="E85">
-        <f t="shared" ref="E85" si="17">AVERAGE(C83:C85)</f>
-        <v>714.66666666666663</v>
-      </c>
       <c r="F85">
-        <f t="shared" ref="F85" si="18">AVERAGE(D83:D85)</f>
-        <v>214586.33333333334</v>
+        <f>AVERAGE(D83:D85)/1000</f>
+        <v>0.71466666666666667</v>
       </c>
       <c r="G85">
-        <f>F85/E85</f>
+        <f>AVERAGE(E83:E85)/1000</f>
+        <v>214.58633333333336</v>
+      </c>
+      <c r="H85">
+        <f>G85/F85</f>
         <v>300.26072761194035</v>
       </c>
     </row>
-    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>0</v>
       </c>
-      <c r="B86">
+      <c r="C86">
         <v>1450000</v>
       </c>
-      <c r="C86">
+      <c r="D86">
         <v>694</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>221825</v>
       </c>
     </row>
-    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>1</v>
       </c>
-      <c r="B87">
+      <c r="C87">
         <v>1450000</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>990</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>220980</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>2</v>
       </c>
-      <c r="B88">
+      <c r="C88">
         <v>1450000</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>931</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>222159</v>
       </c>
-      <c r="E88">
-        <f t="shared" ref="E88" si="19">AVERAGE(C86:C88)</f>
+      <c r="F88">
+        <f t="shared" ref="F88" si="9">AVERAGE(D86:D88)</f>
         <v>871.66666666666663</v>
       </c>
-      <c r="F88">
-        <f t="shared" ref="F88" si="20">AVERAGE(D86:D88)</f>
+      <c r="G88">
+        <f t="shared" ref="G88" si="10">AVERAGE(E86:E88)</f>
         <v>221654.66666666666</v>
       </c>
-      <c r="G88">
-        <f>F88/E88</f>
+      <c r="H88">
+        <f>G88/F88</f>
         <v>254.28833652007648</v>
       </c>
     </row>
-    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>0</v>
       </c>
-      <c r="B89">
+      <c r="C89">
         <v>1500000</v>
       </c>
-      <c r="C89">
+      <c r="D89">
         <v>784</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>227741</v>
       </c>
     </row>
-    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>1</v>
       </c>
-      <c r="B90">
+      <c r="C90">
         <v>1500000</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>715</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>233491</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>2</v>
       </c>
       <c r="B91">
+        <f>C91/100000</f>
+        <v>15</v>
+      </c>
+      <c r="C91">
         <v>1500000</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>784</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>229589</v>
       </c>
-      <c r="E91">
-        <f t="shared" ref="E91" si="21">AVERAGE(C89:C91)</f>
-        <v>761</v>
-      </c>
       <c r="F91">
-        <f t="shared" ref="F91" si="22">AVERAGE(D89:D91)</f>
-        <v>230273.66666666666</v>
+        <f>AVERAGE(D89:D91)/1000</f>
+        <v>0.76100000000000001</v>
       </c>
       <c r="G91">
-        <f>F91/E91</f>
+        <f>AVERAGE(E89:E91)/1000</f>
+        <v>230.27366666666666</v>
+      </c>
+      <c r="H91">
+        <f>G91/F91</f>
         <v>302.59351730179588</v>
       </c>
     </row>
-    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>0</v>
       </c>
-      <c r="B92">
+      <c r="C92">
         <v>1550000</v>
       </c>
-      <c r="C92">
+      <c r="D92">
         <v>737</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>235534</v>
       </c>
     </row>
-    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>1</v>
       </c>
-      <c r="B93">
+      <c r="C93">
         <v>1550000</v>
       </c>
-      <c r="C93">
+      <c r="D93">
         <v>735</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>237582</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>2</v>
       </c>
-      <c r="B94">
+      <c r="C94">
         <v>1550000</v>
       </c>
-      <c r="C94">
+      <c r="D94">
         <v>736</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <v>242041</v>
       </c>
-      <c r="E94">
-        <f t="shared" ref="E94" si="23">AVERAGE(C92:C94)</f>
+      <c r="F94">
+        <f t="shared" ref="F94" si="11">AVERAGE(D92:D94)</f>
         <v>736</v>
       </c>
-      <c r="F94">
-        <f t="shared" ref="F94" si="24">AVERAGE(D92:D94)</f>
+      <c r="G94">
+        <f t="shared" ref="G94" si="12">AVERAGE(E92:E94)</f>
         <v>238385.66666666666</v>
       </c>
-      <c r="G94">
-        <f>F94/E94</f>
+      <c r="H94">
+        <f>G94/F94</f>
         <v>323.89356884057969</v>
       </c>
     </row>
-    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>0</v>
       </c>
-      <c r="B95">
+      <c r="C95">
         <v>1600000</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>759</v>
       </c>
-      <c r="D95">
+      <c r="E95">
         <v>245197</v>
       </c>
     </row>
-    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>1</v>
       </c>
-      <c r="B96">
+      <c r="C96">
         <v>1600000</v>
       </c>
-      <c r="C96">
+      <c r="D96">
         <v>758</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <v>246722</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>2</v>
       </c>
       <c r="B97">
+        <f>C97/100000</f>
+        <v>16</v>
+      </c>
+      <c r="C97">
         <v>1600000</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>757</v>
       </c>
-      <c r="D97">
+      <c r="E97">
         <v>247808</v>
       </c>
-      <c r="E97">
-        <f t="shared" ref="E97" si="25">AVERAGE(C95:C97)</f>
-        <v>758</v>
-      </c>
       <c r="F97">
-        <f t="shared" ref="F97" si="26">AVERAGE(D95:D97)</f>
-        <v>246575.66666666666</v>
+        <f>AVERAGE(D95:D97)/1000</f>
+        <v>0.75800000000000001</v>
       </c>
       <c r="G97">
-        <f>F97/E97</f>
+        <f>AVERAGE(E95:E97)/1000</f>
+        <v>246.57566666666665</v>
+      </c>
+      <c r="H97">
+        <f>G97/F97</f>
         <v>325.29771328056285</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>0</v>
       </c>
-      <c r="B98">
+      <c r="C98">
         <v>1650000</v>
       </c>
-      <c r="C98">
+      <c r="D98">
         <v>853</v>
       </c>
-      <c r="D98">
+      <c r="E98">
         <v>254075</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>1</v>
       </c>
-      <c r="B99">
+      <c r="C99">
         <v>1650000</v>
       </c>
-      <c r="C99">
+      <c r="D99">
         <v>778</v>
       </c>
-      <c r="D99">
+      <c r="E99">
         <v>258481</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>2</v>
       </c>
-      <c r="B100">
+      <c r="C100">
         <v>1650000</v>
       </c>
-      <c r="C100">
+      <c r="D100">
         <v>853</v>
       </c>
-      <c r="D100">
+      <c r="E100">
         <v>252148</v>
       </c>
-      <c r="E100">
-        <f t="shared" ref="E100" si="27">AVERAGE(C98:C100)</f>
+      <c r="F100">
+        <f t="shared" ref="F100" si="13">AVERAGE(D98:D100)</f>
         <v>828</v>
       </c>
-      <c r="F100">
-        <f t="shared" ref="F100" si="28">AVERAGE(D98:D100)</f>
+      <c r="G100">
+        <f t="shared" ref="G100" si="14">AVERAGE(E98:E100)</f>
         <v>254901.33333333334</v>
       </c>
-      <c r="G100">
-        <f>F100/E100</f>
+      <c r="H100">
+        <f>G100/F100</f>
         <v>307.85185185185185</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>0</v>
       </c>
-      <c r="B101">
+      <c r="C101">
         <v>1700000</v>
       </c>
-      <c r="C101">
+      <c r="D101">
         <v>800</v>
       </c>
-      <c r="D101">
+      <c r="E101">
         <v>261088</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>1</v>
       </c>
-      <c r="B102">
+      <c r="C102">
         <v>1700000</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <v>877</v>
       </c>
-      <c r="D102">
+      <c r="E102">
         <v>263824</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>2</v>
       </c>
       <c r="B103">
+        <f>C103/100000</f>
+        <v>17</v>
+      </c>
+      <c r="C103">
         <v>1700000</v>
       </c>
-      <c r="C103">
+      <c r="D103">
         <v>799</v>
       </c>
-      <c r="D103">
+      <c r="E103">
         <v>261379</v>
       </c>
-      <c r="E103">
-        <f t="shared" ref="E103" si="29">AVERAGE(C101:C103)</f>
-        <v>825.33333333333337</v>
-      </c>
       <c r="F103">
-        <f t="shared" ref="F103" si="30">AVERAGE(D101:D103)</f>
-        <v>262097</v>
+        <f>AVERAGE(D101:D103)/1000</f>
+        <v>0.82533333333333336</v>
       </c>
       <c r="G103">
-        <f>F103/E103</f>
-        <v>317.56502423263328</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+        <f>AVERAGE(E101:E103)/1000</f>
+        <v>262.09699999999998</v>
+      </c>
+      <c r="H103">
+        <f>G103/F103</f>
+        <v>317.56502423263322</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>0</v>
       </c>
-      <c r="B104">
+      <c r="C104">
         <v>1750000</v>
       </c>
-      <c r="C104">
+      <c r="D104">
         <v>905</v>
       </c>
-      <c r="D104">
+      <c r="E104">
         <v>268700</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>1</v>
       </c>
-      <c r="B105">
+      <c r="C105">
         <v>1750000</v>
       </c>
-      <c r="C105">
+      <c r="D105">
         <v>923</v>
       </c>
-      <c r="D105">
+      <c r="E105">
         <v>270874</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>2</v>
       </c>
-      <c r="B106">
+      <c r="C106">
         <v>1750000</v>
       </c>
-      <c r="C106">
+      <c r="D106">
         <v>825</v>
       </c>
-      <c r="D106">
+      <c r="E106">
         <v>271173</v>
       </c>
-      <c r="E106">
-        <f t="shared" ref="E106" si="31">AVERAGE(C104:C106)</f>
+      <c r="F106">
+        <f t="shared" ref="F106" si="15">AVERAGE(D104:D106)</f>
         <v>884.33333333333337</v>
       </c>
-      <c r="F106">
-        <f t="shared" ref="F106" si="32">AVERAGE(D104:D106)</f>
+      <c r="G106">
+        <f t="shared" ref="G106" si="16">AVERAGE(E104:E106)</f>
         <v>270249</v>
       </c>
-      <c r="G106">
-        <f>F106/E106</f>
+      <c r="H106">
+        <f>G106/F106</f>
         <v>305.59630606860156</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>0</v>
       </c>
-      <c r="B107">
+      <c r="C107">
         <v>1800000</v>
       </c>
-      <c r="C107">
+      <c r="D107">
         <v>847</v>
       </c>
-      <c r="D107">
+      <c r="E107">
         <v>280216</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>1</v>
       </c>
-      <c r="B108">
+      <c r="C108">
         <v>1800000</v>
       </c>
-      <c r="C108">
+      <c r="D108">
         <v>846</v>
       </c>
-      <c r="D108">
+      <c r="E108">
         <v>276188</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>2</v>
       </c>
       <c r="B109">
+        <f>C109/100000</f>
+        <v>18</v>
+      </c>
+      <c r="C109">
         <v>1800000</v>
       </c>
-      <c r="C109">
+      <c r="D109">
         <v>847</v>
       </c>
-      <c r="D109">
+      <c r="E109">
         <v>277516</v>
       </c>
-      <c r="E109">
-        <f t="shared" ref="E109" si="33">AVERAGE(C107:C109)</f>
-        <v>846.66666666666663</v>
-      </c>
       <c r="F109">
-        <f t="shared" ref="F109" si="34">AVERAGE(D107:D109)</f>
-        <v>277973.33333333331</v>
+        <f>AVERAGE(D107:D109)/1000</f>
+        <v>0.84666666666666668</v>
       </c>
       <c r="G109">
-        <f>F109/E109</f>
+        <f>AVERAGE(E107:E109)/1000</f>
+        <v>277.9733333333333</v>
+      </c>
+      <c r="H109">
+        <f>G109/F109</f>
         <v>328.31496062992125</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>0</v>
       </c>
-      <c r="B110">
+      <c r="C110">
         <v>1850000</v>
       </c>
-      <c r="C110">
+      <c r="D110">
         <v>955</v>
       </c>
-      <c r="D110">
+      <c r="E110">
         <v>282025</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>1</v>
       </c>
-      <c r="B111">
+      <c r="C111">
         <v>1850000</v>
       </c>
-      <c r="C111">
+      <c r="D111">
         <v>956</v>
       </c>
-      <c r="D111">
+      <c r="E111">
         <v>284333</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>2</v>
       </c>
-      <c r="B112">
+      <c r="C112">
         <v>1850000</v>
       </c>
-      <c r="C112">
+      <c r="D112">
         <v>879</v>
       </c>
-      <c r="D112">
+      <c r="E112">
         <v>281975</v>
       </c>
-      <c r="E112">
-        <f t="shared" ref="E112" si="35">AVERAGE(C110:C112)</f>
+      <c r="F112">
+        <f t="shared" ref="F112" si="17">AVERAGE(D110:D112)</f>
         <v>930</v>
       </c>
-      <c r="F112">
-        <f t="shared" ref="F112" si="36">AVERAGE(D110:D112)</f>
+      <c r="G112">
+        <f t="shared" ref="G112" si="18">AVERAGE(E110:E112)</f>
         <v>282777.66666666669</v>
       </c>
-      <c r="G112">
-        <f>F112/E112</f>
+      <c r="H112">
+        <f>G112/F112</f>
         <v>304.06200716845882</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>0</v>
       </c>
-      <c r="B113">
+      <c r="C113">
         <v>1900000</v>
       </c>
-      <c r="C113">
+      <c r="D113">
         <v>893</v>
       </c>
-      <c r="D113">
+      <c r="E113">
         <v>289844</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>1</v>
       </c>
-      <c r="B114">
+      <c r="C114">
         <v>1900000</v>
       </c>
-      <c r="C114">
+      <c r="D114">
         <v>892</v>
       </c>
-      <c r="D114">
+      <c r="E114">
         <v>293405</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>2</v>
       </c>
       <c r="B115">
+        <f>C115/100000</f>
+        <v>19</v>
+      </c>
+      <c r="C115">
         <v>1900000</v>
       </c>
-      <c r="C115">
+      <c r="D115">
         <v>892</v>
       </c>
-      <c r="D115">
+      <c r="E115">
         <v>288179</v>
       </c>
-      <c r="E115">
-        <f t="shared" ref="E115" si="37">AVERAGE(C113:C115)</f>
-        <v>892.33333333333337</v>
-      </c>
       <c r="F115">
-        <f t="shared" ref="F115" si="38">AVERAGE(D113:D115)</f>
-        <v>290476</v>
+        <f>AVERAGE(D113:D115)/1000</f>
+        <v>0.89233333333333342</v>
       </c>
       <c r="G115">
-        <f>F115/E115</f>
+        <f>AVERAGE(E113:E115)/1000</f>
+        <v>290.476</v>
+      </c>
+      <c r="H115">
+        <f>G115/F115</f>
         <v>325.52409413522599</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>0</v>
       </c>
-      <c r="B116">
+      <c r="C116">
         <v>1950000</v>
       </c>
-      <c r="C116">
+      <c r="D116">
         <v>1019</v>
       </c>
-      <c r="D116">
+      <c r="E116">
         <v>299300</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>1</v>
       </c>
-      <c r="B117">
+      <c r="C117">
         <v>1950000</v>
       </c>
-      <c r="C117">
+      <c r="D117">
         <v>915</v>
       </c>
-      <c r="D117">
+      <c r="E117">
         <v>293787</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>2</v>
       </c>
-      <c r="B118">
+      <c r="C118">
         <v>1950000</v>
       </c>
-      <c r="C118">
+      <c r="D118">
         <v>914</v>
       </c>
-      <c r="D118">
+      <c r="E118">
         <v>292171</v>
       </c>
-      <c r="E118">
-        <f t="shared" ref="E118" si="39">AVERAGE(C116:C118)</f>
+      <c r="F118">
+        <f t="shared" ref="F118" si="19">AVERAGE(D116:D118)</f>
         <v>949.33333333333337</v>
       </c>
-      <c r="F118">
-        <f t="shared" ref="F118" si="40">AVERAGE(D116:D118)</f>
+      <c r="G118">
+        <f t="shared" ref="G118" si="20">AVERAGE(E116:E118)</f>
         <v>295086</v>
       </c>
-      <c r="G118">
-        <f>F118/E118</f>
+      <c r="H118">
+        <f>G118/F118</f>
         <v>310.83497191011236</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>0</v>
       </c>
-      <c r="B119">
+      <c r="C119">
         <v>2000000</v>
       </c>
-      <c r="C119">
+      <c r="D119">
         <v>1040</v>
       </c>
-      <c r="D119">
+      <c r="E119">
         <v>302524</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>1</v>
       </c>
-      <c r="B120">
+      <c r="C120">
         <v>2000000</v>
       </c>
-      <c r="C120">
+      <c r="D120">
         <v>1045</v>
       </c>
-      <c r="D120">
+      <c r="E120">
         <v>302342</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>2</v>
       </c>
       <c r="B121">
+        <f>C121/100000</f>
+        <v>20</v>
+      </c>
+      <c r="C121">
         <v>2000000</v>
       </c>
-      <c r="C121">
+      <c r="D121">
         <v>936</v>
       </c>
-      <c r="D121">
+      <c r="E121">
         <v>299243</v>
       </c>
-      <c r="E121">
-        <f t="shared" ref="E121" si="41">AVERAGE(C119:C121)</f>
-        <v>1007</v>
-      </c>
       <c r="F121">
-        <f t="shared" ref="F121" si="42">AVERAGE(D119:D121)</f>
-        <v>301369.66666666669</v>
+        <f>AVERAGE(D119:D121)/1000</f>
+        <v>1.0069999999999999</v>
       </c>
       <c r="G121">
-        <f>F121/E121</f>
+        <f>AVERAGE(E119:E121)/1000</f>
+        <v>301.36966666666666</v>
+      </c>
+      <c r="H121">
+        <f>G121/F121</f>
         <v>299.27474346242968</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>0</v>
       </c>
-      <c r="B122">
+      <c r="C122">
         <v>2050000</v>
       </c>
-      <c r="C122">
+      <c r="D122">
         <v>1055</v>
       </c>
-      <c r="D122">
+      <c r="E122">
         <v>312084</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>1</v>
       </c>
-      <c r="B123">
+      <c r="C123">
         <v>2050000</v>
       </c>
-      <c r="C123">
+      <c r="D123">
         <v>1055</v>
       </c>
-      <c r="D123">
+      <c r="E123">
         <v>314112</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>2</v>
       </c>
-      <c r="B124">
+      <c r="C124">
         <v>2050000</v>
       </c>
-      <c r="C124">
+      <c r="D124">
         <v>1057</v>
       </c>
-      <c r="D124">
+      <c r="E124">
         <v>311547</v>
       </c>
-      <c r="E124">
-        <f t="shared" ref="E124" si="43">AVERAGE(C122:C124)</f>
+      <c r="F124">
+        <f t="shared" ref="F124" si="21">AVERAGE(D122:D124)</f>
         <v>1055.6666666666667</v>
       </c>
-      <c r="F124">
-        <f t="shared" ref="F124" si="44">AVERAGE(D122:D124)</f>
+      <c r="G124">
+        <f t="shared" ref="G124" si="22">AVERAGE(E122:E124)</f>
         <v>312581</v>
       </c>
-      <c r="G124">
-        <f>F124/E124</f>
+      <c r="H124">
+        <f>G124/F124</f>
         <v>296.09820018945373</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>0</v>
       </c>
-      <c r="B125">
+      <c r="C125">
         <v>2100000</v>
       </c>
-      <c r="C125">
+      <c r="D125">
         <v>984</v>
       </c>
-      <c r="D125">
+      <c r="E125">
         <v>316561</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>1</v>
       </c>
-      <c r="B126">
+      <c r="C126">
         <v>2100000</v>
       </c>
-      <c r="C126">
+      <c r="D126">
         <v>1083</v>
       </c>
-      <c r="D126">
+      <c r="E126">
         <v>322257</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>2</v>
       </c>
       <c r="B127">
+        <f>C127/100000</f>
+        <v>21</v>
+      </c>
+      <c r="C127">
         <v>2100000</v>
       </c>
-      <c r="C127">
+      <c r="D127">
         <v>1083</v>
       </c>
-      <c r="D127">
+      <c r="E127">
         <v>316681</v>
       </c>
-      <c r="E127">
-        <f t="shared" ref="E127" si="45">AVERAGE(C125:C127)</f>
-        <v>1050</v>
-      </c>
       <c r="F127">
-        <f t="shared" ref="F127" si="46">AVERAGE(D125:D127)</f>
-        <v>318499.66666666669</v>
+        <f>AVERAGE(D125:D127)/1000</f>
+        <v>1.05</v>
       </c>
       <c r="G127">
-        <f>F127/E127</f>
+        <f>AVERAGE(E125:E127)/1000</f>
+        <v>318.49966666666671</v>
+      </c>
+      <c r="H127">
+        <f>G127/F127</f>
         <v>303.33301587301588</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>0</v>
       </c>
-      <c r="B128">
+      <c r="C128">
         <v>2150000</v>
       </c>
-      <c r="C128">
+      <c r="D128">
         <v>1108</v>
       </c>
-      <c r="D128">
+      <c r="E128">
         <v>325123</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>1</v>
       </c>
-      <c r="B129">
+      <c r="C129">
         <v>2150000</v>
       </c>
-      <c r="C129">
+      <c r="D129">
         <v>1007</v>
       </c>
-      <c r="D129">
+      <c r="E129">
         <v>325317</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>2</v>
       </c>
-      <c r="B130">
+      <c r="C130">
         <v>2150000</v>
       </c>
-      <c r="C130">
+      <c r="D130">
         <v>1017</v>
       </c>
-      <c r="D130">
+      <c r="E130">
         <v>322892</v>
       </c>
-      <c r="E130">
-        <f t="shared" ref="E130" si="47">AVERAGE(C128:C130)</f>
+      <c r="F130">
+        <f t="shared" ref="F130" si="23">AVERAGE(D128:D130)</f>
         <v>1044</v>
       </c>
-      <c r="F130">
-        <f t="shared" ref="F130" si="48">AVERAGE(D128:D130)</f>
+      <c r="G130">
+        <f t="shared" ref="G130" si="24">AVERAGE(E128:E130)</f>
         <v>324444</v>
       </c>
-      <c r="G130">
-        <f>F130/E130</f>
+      <c r="H130">
+        <f>G130/F130</f>
         <v>310.77011494252872</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>0</v>
       </c>
-      <c r="B131">
+      <c r="C131">
         <v>2200000</v>
       </c>
-      <c r="C131">
+      <c r="D131">
         <v>1149</v>
       </c>
-      <c r="D131">
+      <c r="E131">
         <v>332722</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>1</v>
       </c>
-      <c r="B132">
+      <c r="C132">
         <v>2200000</v>
       </c>
-      <c r="C132">
+      <c r="D132">
         <v>1031</v>
       </c>
-      <c r="D132">
+      <c r="E132">
         <v>332438</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>2</v>
       </c>
       <c r="B133">
+        <f>C133/100000</f>
+        <v>22</v>
+      </c>
+      <c r="C133">
         <v>2200000</v>
       </c>
-      <c r="C133">
+      <c r="D133">
         <v>1031</v>
       </c>
-      <c r="D133">
+      <c r="E133">
         <v>335958</v>
       </c>
-      <c r="E133">
-        <f t="shared" ref="E133" si="49">AVERAGE(C131:C133)</f>
-        <v>1070.3333333333333</v>
-      </c>
       <c r="F133">
-        <f t="shared" ref="F133" si="50">AVERAGE(D131:D133)</f>
-        <v>333706</v>
+        <f>AVERAGE(D131:D133)/1000</f>
+        <v>1.0703333333333334</v>
       </c>
       <c r="G133">
-        <f>F133/E133</f>
+        <f>AVERAGE(E131:E133)/1000</f>
+        <v>333.70600000000002</v>
+      </c>
+      <c r="H133">
+        <f>G133/F133</f>
         <v>311.77763936468392</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>0</v>
       </c>
-      <c r="B134">
+      <c r="C134">
         <v>2250000</v>
       </c>
-      <c r="C134">
+      <c r="D134">
         <v>1055</v>
       </c>
-      <c r="D134">
+      <c r="E134">
         <v>339187</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>1</v>
       </c>
-      <c r="B135">
+      <c r="C135">
         <v>2250000</v>
       </c>
-      <c r="C135">
+      <c r="D135">
         <v>1161</v>
       </c>
-      <c r="D135">
+      <c r="E135">
         <v>341768</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>2</v>
       </c>
-      <c r="B136">
+      <c r="C136">
         <v>2250000</v>
       </c>
-      <c r="C136">
+      <c r="D136">
         <v>1054</v>
       </c>
-      <c r="D136">
+      <c r="E136">
         <v>338523</v>
       </c>
-      <c r="E136">
-        <f t="shared" ref="E136" si="51">AVERAGE(C134:C136)</f>
+      <c r="F136">
+        <f t="shared" ref="F136" si="25">AVERAGE(D134:D136)</f>
         <v>1090</v>
       </c>
-      <c r="F136">
-        <f t="shared" ref="F136" si="52">AVERAGE(D134:D136)</f>
+      <c r="G136">
+        <f t="shared" ref="G136" si="26">AVERAGE(E134:E136)</f>
         <v>339826</v>
       </c>
-      <c r="G136">
-        <f>F136/E136</f>
+      <c r="H136">
+        <f>G136/F136</f>
         <v>311.7669724770642</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>0</v>
       </c>
-      <c r="B137">
+      <c r="C137">
         <v>2300000</v>
       </c>
-      <c r="C137">
+      <c r="D137">
         <v>1190</v>
       </c>
-      <c r="D137">
+      <c r="E137">
         <v>345583</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>1</v>
       </c>
-      <c r="B138">
+      <c r="C138">
         <v>2300000</v>
       </c>
-      <c r="C138">
+      <c r="D138">
         <v>1189</v>
       </c>
-      <c r="D138">
+      <c r="E138">
         <v>340907</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>2</v>
       </c>
       <c r="B139">
+        <f>C139/100000</f>
+        <v>23</v>
+      </c>
+      <c r="C139">
         <v>2300000</v>
       </c>
-      <c r="C139">
+      <c r="D139">
         <v>1097</v>
       </c>
-      <c r="D139">
+      <c r="E139">
         <v>348070</v>
       </c>
-      <c r="E139">
-        <f t="shared" ref="E139" si="53">AVERAGE(C137:C139)</f>
-        <v>1158.6666666666667</v>
-      </c>
       <c r="F139">
-        <f t="shared" ref="F139" si="54">AVERAGE(D137:D139)</f>
-        <v>344853.33333333331</v>
+        <f>AVERAGE(D137:D139)/1000</f>
+        <v>1.1586666666666667</v>
       </c>
       <c r="G139">
-        <f>F139/E139</f>
-        <v>297.62945914844647</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+        <f>AVERAGE(E137:E139)/1000</f>
+        <v>344.8533333333333</v>
+      </c>
+      <c r="H139">
+        <f>G139/F139</f>
+        <v>297.62945914844641</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>0</v>
       </c>
-      <c r="B140">
+      <c r="C140">
         <v>2350000</v>
       </c>
-      <c r="C140">
+      <c r="D140">
         <v>1123</v>
       </c>
-      <c r="D140">
+      <c r="E140">
         <v>353676</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>1</v>
       </c>
-      <c r="B141">
+      <c r="C141">
         <v>2350000</v>
       </c>
-      <c r="C141">
+      <c r="D141">
         <v>1217</v>
       </c>
-      <c r="D141">
+      <c r="E141">
         <v>353757</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>2</v>
       </c>
-      <c r="B142">
+      <c r="C142">
         <v>2350000</v>
       </c>
-      <c r="C142">
+      <c r="D142">
         <v>1216</v>
       </c>
-      <c r="D142">
+      <c r="E142">
         <v>354378</v>
       </c>
-      <c r="E142">
-        <f t="shared" ref="E142" si="55">AVERAGE(C140:C142)</f>
+      <c r="F142">
+        <f t="shared" ref="F142" si="27">AVERAGE(D140:D142)</f>
         <v>1185.3333333333333</v>
       </c>
-      <c r="F142">
-        <f t="shared" ref="F142" si="56">AVERAGE(D140:D142)</f>
+      <c r="G142">
+        <f t="shared" ref="G142" si="28">AVERAGE(E140:E142)</f>
         <v>353937</v>
       </c>
-      <c r="G142">
-        <f>F142/E142</f>
+      <c r="H142">
+        <f>G142/F142</f>
         <v>298.59701912260971</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>0</v>
       </c>
-      <c r="B143">
+      <c r="C143">
         <v>2400000</v>
       </c>
-      <c r="C143">
+      <c r="D143">
         <v>1148</v>
       </c>
-      <c r="D143">
+      <c r="E143">
         <v>359479</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>1</v>
       </c>
-      <c r="B144">
+      <c r="C144">
         <v>2400000</v>
       </c>
-      <c r="C144">
+      <c r="D144">
         <v>1148</v>
       </c>
-      <c r="D144">
+      <c r="E144">
         <v>361890</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>2</v>
       </c>
       <c r="B145">
+        <f>C145/100000</f>
+        <v>24</v>
+      </c>
+      <c r="C145">
         <v>2400000</v>
       </c>
-      <c r="C145">
+      <c r="D145">
         <v>1150</v>
       </c>
-      <c r="D145">
+      <c r="E145">
         <v>357484</v>
       </c>
-      <c r="E145">
-        <f t="shared" ref="E145" si="57">AVERAGE(C143:C145)</f>
-        <v>1148.6666666666667</v>
-      </c>
       <c r="F145">
-        <f t="shared" ref="F145" si="58">AVERAGE(D143:D145)</f>
-        <v>359617.66666666669</v>
+        <f>AVERAGE(D143:D145)/1000</f>
+        <v>1.1486666666666667</v>
       </c>
       <c r="G145">
-        <f>F145/E145</f>
-        <v>313.07399883923387</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+        <f>AVERAGE(E143:E145)/1000</f>
+        <v>359.61766666666671</v>
+      </c>
+      <c r="H145">
+        <f>G145/F145</f>
+        <v>313.07399883923392</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>0</v>
       </c>
-      <c r="B146">
+      <c r="C146">
         <v>2450000</v>
       </c>
-      <c r="C146">
+      <c r="D146">
         <v>1272</v>
       </c>
-      <c r="D146">
+      <c r="E146">
         <v>369137</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>1</v>
       </c>
-      <c r="B147">
+      <c r="C147">
         <v>2450000</v>
       </c>
-      <c r="C147">
+      <c r="D147">
         <v>1169</v>
       </c>
-      <c r="D147">
+      <c r="E147">
         <v>363834</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>2</v>
       </c>
-      <c r="B148">
+      <c r="C148">
         <v>2450000</v>
       </c>
-      <c r="C148">
+      <c r="D148">
         <v>1285</v>
       </c>
-      <c r="D148">
+      <c r="E148">
         <v>363006</v>
       </c>
-      <c r="E148">
-        <f t="shared" ref="E148" si="59">AVERAGE(C146:C148)</f>
+      <c r="F148">
+        <f t="shared" ref="F148" si="29">AVERAGE(D146:D148)</f>
         <v>1242</v>
       </c>
-      <c r="F148">
-        <f t="shared" ref="F148" si="60">AVERAGE(D146:D148)</f>
+      <c r="G148">
+        <f t="shared" ref="G148" si="30">AVERAGE(E146:E148)</f>
         <v>365325.66666666669</v>
       </c>
-      <c r="G148">
-        <f>F148/E148</f>
+      <c r="H148">
+        <f>G148/F148</f>
         <v>294.14304884594742</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>0</v>
       </c>
-      <c r="B149">
+      <c r="C149">
         <v>2500000</v>
       </c>
-      <c r="C149">
+      <c r="D149">
         <v>1301</v>
       </c>
-      <c r="D149">
+      <c r="E149">
         <v>375616</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>1</v>
       </c>
-      <c r="B150">
+      <c r="C150">
         <v>2500000</v>
       </c>
-      <c r="C150">
+      <c r="D150">
         <v>1199</v>
       </c>
-      <c r="D150">
+      <c r="E150">
         <v>371698</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>2</v>
       </c>
       <c r="B151">
+        <f>C151/100000</f>
+        <v>25</v>
+      </c>
+      <c r="C151">
         <v>2500000</v>
       </c>
-      <c r="C151">
+      <c r="D151">
         <v>1182</v>
       </c>
-      <c r="D151">
+      <c r="E151">
         <v>376921</v>
       </c>
-      <c r="E151">
-        <f t="shared" ref="E151" si="61">AVERAGE(C149:C151)</f>
-        <v>1227.3333333333333</v>
-      </c>
       <c r="F151">
-        <f t="shared" ref="F151" si="62">AVERAGE(D149:D151)</f>
-        <v>374745</v>
+        <f>AVERAGE(D149:D151)/1000</f>
+        <v>1.2273333333333332</v>
       </c>
       <c r="G151">
-        <f>F151/E151</f>
-        <v>305.33269961977186</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+        <f>AVERAGE(E149:E151)/1000</f>
+        <v>374.745</v>
+      </c>
+      <c r="H151">
+        <f>G151/F151</f>
+        <v>305.33269961977192</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>0</v>
       </c>
-      <c r="B152">
+      <c r="C152">
         <v>2550000</v>
       </c>
-      <c r="C152">
+      <c r="D152">
         <v>1329</v>
       </c>
-      <c r="D152">
+      <c r="E152">
         <v>381702</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>1</v>
       </c>
-      <c r="B153">
+      <c r="C153">
         <v>2550000</v>
       </c>
-      <c r="C153">
+      <c r="D153">
         <v>1341</v>
       </c>
-      <c r="D153">
+      <c r="E153">
         <v>382807</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>2</v>
       </c>
-      <c r="B154">
+      <c r="C154">
         <v>2550000</v>
       </c>
-      <c r="C154">
+      <c r="D154">
         <v>1225</v>
       </c>
-      <c r="D154">
+      <c r="E154">
         <v>382887</v>
       </c>
-      <c r="E154">
-        <f t="shared" ref="E154" si="63">AVERAGE(C152:C154)</f>
+      <c r="F154">
+        <f t="shared" ref="F154" si="31">AVERAGE(D152:D154)</f>
         <v>1298.3333333333333</v>
       </c>
-      <c r="F154">
-        <f t="shared" ref="F154" si="64">AVERAGE(D152:D154)</f>
+      <c r="G154">
+        <f t="shared" ref="G154" si="32">AVERAGE(E152:E154)</f>
         <v>382465.33333333331</v>
       </c>
-      <c r="G154">
-        <f>F154/E154</f>
+      <c r="H154">
+        <f>G154/F154</f>
         <v>294.58177150192557</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>0</v>
       </c>
-      <c r="B155">
+      <c r="C155">
         <v>2600000</v>
       </c>
-      <c r="C155">
+      <c r="D155">
         <v>1359</v>
       </c>
-      <c r="D155">
+      <c r="E155">
         <v>386742</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>1</v>
       </c>
-      <c r="B156">
+      <c r="C156">
         <v>2600000</v>
       </c>
-      <c r="C156">
+      <c r="D156">
         <v>1475</v>
       </c>
-      <c r="D156">
+      <c r="E156">
         <v>394001</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>2</v>
       </c>
       <c r="B157">
+        <f>C157/100000</f>
+        <v>26</v>
+      </c>
+      <c r="C157">
         <v>2600000</v>
       </c>
-      <c r="C157">
+      <c r="D157">
         <v>1236</v>
       </c>
-      <c r="D157">
+      <c r="E157">
         <v>388288</v>
       </c>
-      <c r="E157">
-        <f t="shared" ref="E157" si="65">AVERAGE(C155:C157)</f>
-        <v>1356.6666666666667</v>
-      </c>
       <c r="F157">
-        <f t="shared" ref="F157" si="66">AVERAGE(D155:D157)</f>
-        <v>389677</v>
+        <f>AVERAGE(D155:D157)/1000</f>
+        <v>1.3566666666666667</v>
       </c>
       <c r="G157">
-        <f>F157/E157</f>
+        <f>AVERAGE(E155:E157)/1000</f>
+        <v>389.67700000000002</v>
+      </c>
+      <c r="H157">
+        <f>G157/F157</f>
         <v>287.23120393120394</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>0</v>
       </c>
-      <c r="B158">
+      <c r="C158">
         <v>2650000</v>
       </c>
-      <c r="C158">
+      <c r="D158">
         <v>1277</v>
       </c>
-      <c r="D158">
+      <c r="E158">
         <v>390793</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>1</v>
       </c>
-      <c r="B159">
+      <c r="C159">
         <v>2650000</v>
       </c>
-      <c r="C159">
+      <c r="D159">
         <v>1404</v>
       </c>
-      <c r="D159">
+      <c r="E159">
         <v>388795</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>2</v>
       </c>
-      <c r="B160">
+      <c r="C160">
         <v>2650000</v>
       </c>
-      <c r="C160">
+      <c r="D160">
         <v>1388</v>
       </c>
-      <c r="D160">
+      <c r="E160">
         <v>395506</v>
       </c>
-      <c r="E160">
-        <f t="shared" ref="E160" si="67">AVERAGE(C158:C160)</f>
+      <c r="F160">
+        <f t="shared" ref="F160" si="33">AVERAGE(D158:D160)</f>
         <v>1356.3333333333333</v>
       </c>
-      <c r="F160">
-        <f t="shared" ref="F160" si="68">AVERAGE(D158:D160)</f>
+      <c r="G160">
+        <f t="shared" ref="G160" si="34">AVERAGE(E158:E160)</f>
         <v>391698</v>
       </c>
-      <c r="G160">
-        <f>F160/E160</f>
+      <c r="H160">
+        <f>G160/F160</f>
         <v>288.7918407471123</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>0</v>
       </c>
-      <c r="B161">
+      <c r="C161">
         <v>2700000</v>
       </c>
-      <c r="C161">
+      <c r="D161">
         <v>1422</v>
       </c>
-      <c r="D161">
+      <c r="E161">
         <v>403495</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>1</v>
       </c>
-      <c r="B162">
+      <c r="C162">
         <v>2700000</v>
       </c>
-      <c r="C162">
+      <c r="D162">
         <v>1410</v>
       </c>
-      <c r="D162">
+      <c r="E162">
         <v>406934</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>2</v>
       </c>
       <c r="B163">
+        <f>C163/100000</f>
+        <v>27</v>
+      </c>
+      <c r="C163">
         <v>2700000</v>
       </c>
-      <c r="C163">
+      <c r="D163">
         <v>1410</v>
       </c>
-      <c r="D163">
+      <c r="E163">
         <v>402249</v>
       </c>
-      <c r="E163">
-        <f t="shared" ref="E163" si="69">AVERAGE(C161:C163)</f>
-        <v>1414</v>
-      </c>
       <c r="F163">
-        <f t="shared" ref="F163" si="70">AVERAGE(D161:D163)</f>
-        <v>404226</v>
+        <f>AVERAGE(D161:D163)/1000</f>
+        <v>1.4139999999999999</v>
       </c>
       <c r="G163">
-        <f>F163/E163</f>
-        <v>285.87411598302685</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+        <f>AVERAGE(E161:E163)/1000</f>
+        <v>404.226</v>
+      </c>
+      <c r="H163">
+        <f>G163/F163</f>
+        <v>285.87411598302691</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A164">
         <v>0</v>
       </c>
-      <c r="B164">
+      <c r="C164">
         <v>2750000</v>
       </c>
-      <c r="C164">
+      <c r="D164">
         <v>1303</v>
       </c>
-      <c r="D164">
+      <c r="E164">
         <v>418298</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A165">
         <v>1</v>
       </c>
-      <c r="B165">
+      <c r="C165">
         <v>2750000</v>
       </c>
-      <c r="C165">
+      <c r="D165">
         <v>1686</v>
       </c>
-      <c r="D165">
+      <c r="E165">
         <v>414177</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A166">
         <v>2</v>
       </c>
-      <c r="B166">
+      <c r="C166">
         <v>2750000</v>
       </c>
-      <c r="C166">
+      <c r="D166">
         <v>1302</v>
       </c>
-      <c r="D166">
+      <c r="E166">
         <v>416205</v>
       </c>
-      <c r="E166">
-        <f t="shared" ref="E166" si="71">AVERAGE(C164:C166)</f>
+      <c r="F166">
+        <f t="shared" ref="F166" si="35">AVERAGE(D164:D166)</f>
         <v>1430.3333333333333</v>
       </c>
-      <c r="F166">
-        <f t="shared" ref="F166" si="72">AVERAGE(D164:D166)</f>
+      <c r="G166">
+        <f t="shared" ref="G166" si="36">AVERAGE(E164:E166)</f>
         <v>416226.66666666669</v>
       </c>
-      <c r="G166">
-        <f>F166/E166</f>
+      <c r="H166">
+        <f>G166/F166</f>
         <v>290.99976695408998</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>0</v>
       </c>
-      <c r="B167">
+      <c r="C167">
         <v>2800000</v>
       </c>
-      <c r="C167">
+      <c r="D167">
         <v>1327</v>
       </c>
-      <c r="D167">
+      <c r="E167">
         <v>418008</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A168">
         <v>1</v>
       </c>
-      <c r="B168">
+      <c r="C168">
         <v>2800000</v>
       </c>
-      <c r="C168">
+      <c r="D168">
         <v>1327</v>
       </c>
-      <c r="D168">
+      <c r="E168">
         <v>418893</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A169">
         <v>2</v>
       </c>
       <c r="B169">
+        <f>C169/100000</f>
+        <v>28</v>
+      </c>
+      <c r="C169">
         <v>2800000</v>
       </c>
-      <c r="C169">
+      <c r="D169">
         <v>1474</v>
       </c>
-      <c r="D169">
+      <c r="E169">
         <v>418456</v>
       </c>
-      <c r="E169">
-        <f t="shared" ref="E169" si="73">AVERAGE(C167:C169)</f>
-        <v>1376</v>
-      </c>
       <c r="F169">
-        <f t="shared" ref="F169" si="74">AVERAGE(D167:D169)</f>
-        <v>418452.33333333331</v>
+        <f>AVERAGE(D167:D169)/1000</f>
+        <v>1.3759999999999999</v>
       </c>
       <c r="G169">
-        <f>F169/E169</f>
+        <f>AVERAGE(E167:E169)/1000</f>
+        <v>418.45233333333329</v>
+      </c>
+      <c r="H169">
+        <f>G169/F169</f>
         <v>304.10780038759691</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A170">
         <v>0</v>
       </c>
-      <c r="B170">
+      <c r="C170">
         <v>2850000</v>
       </c>
-      <c r="C170">
+      <c r="D170">
         <v>1350</v>
       </c>
-      <c r="D170">
+      <c r="E170">
         <v>423573</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>1</v>
       </c>
-      <c r="B171">
+      <c r="C171">
         <v>2850000</v>
       </c>
-      <c r="C171">
+      <c r="D171">
         <v>1693</v>
       </c>
-      <c r="D171">
+      <c r="E171">
         <v>429990</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A172">
         <v>2</v>
       </c>
-      <c r="B172">
+      <c r="C172">
         <v>2850000</v>
       </c>
-      <c r="C172">
+      <c r="D172">
         <v>1604</v>
       </c>
-      <c r="D172">
+      <c r="E172">
         <v>426322</v>
       </c>
-      <c r="E172">
-        <f t="shared" ref="E172" si="75">AVERAGE(C170:C172)</f>
+      <c r="F172">
+        <f t="shared" ref="F172" si="37">AVERAGE(D170:D172)</f>
         <v>1549</v>
       </c>
-      <c r="F172">
-        <f t="shared" ref="F172" si="76">AVERAGE(D170:D172)</f>
+      <c r="G172">
+        <f t="shared" ref="G172" si="38">AVERAGE(E170:E172)</f>
         <v>426628.33333333331</v>
       </c>
-      <c r="G172">
-        <f>F172/E172</f>
+      <c r="H172">
+        <f>G172/F172</f>
         <v>275.42177749085431</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A173">
         <v>0</v>
       </c>
-      <c r="B173">
+      <c r="C173">
         <v>2900000</v>
       </c>
-      <c r="C173">
+      <c r="D173">
         <v>1375</v>
       </c>
-      <c r="D173">
+      <c r="E173">
         <v>435474</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A174">
         <v>1</v>
       </c>
-      <c r="B174">
+      <c r="C174">
         <v>2900000</v>
       </c>
-      <c r="C174">
+      <c r="D174">
         <v>1512</v>
       </c>
-      <c r="D174">
+      <c r="E174">
         <v>433027</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>2</v>
       </c>
       <c r="B175">
+        <f>C175/100000</f>
+        <v>29</v>
+      </c>
+      <c r="C175">
         <v>2900000</v>
       </c>
-      <c r="C175">
+      <c r="D175">
         <v>1529</v>
       </c>
-      <c r="D175">
+      <c r="E175">
         <v>433404</v>
       </c>
-      <c r="E175">
-        <f t="shared" ref="E175" si="77">AVERAGE(C173:C175)</f>
-        <v>1472</v>
-      </c>
       <c r="F175">
-        <f t="shared" ref="F175" si="78">AVERAGE(D173:D175)</f>
-        <v>433968.33333333331</v>
+        <f>AVERAGE(D173:D175)/1000</f>
+        <v>1.472</v>
       </c>
       <c r="G175">
-        <f>F175/E175</f>
+        <f>AVERAGE(E173:E175)/1000</f>
+        <v>433.96833333333331</v>
+      </c>
+      <c r="H175">
+        <f>G175/F175</f>
         <v>294.81544384057969</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A176">
         <v>0</v>
       </c>
-      <c r="B176">
+      <c r="C176">
         <v>2950000</v>
       </c>
-      <c r="C176">
+      <c r="D176">
         <v>1539</v>
       </c>
-      <c r="D176">
+      <c r="E176">
         <v>443096</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A177">
         <v>1</v>
       </c>
-      <c r="B177">
+      <c r="C177">
         <v>2950000</v>
       </c>
-      <c r="C177">
+      <c r="D177">
         <v>1877</v>
       </c>
-      <c r="D177">
+      <c r="E177">
         <v>445806</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A178">
         <v>2</v>
       </c>
-      <c r="B178">
+      <c r="C178">
         <v>2950000</v>
       </c>
-      <c r="C178">
+      <c r="D178">
         <v>1399</v>
       </c>
-      <c r="D178">
+      <c r="E178">
         <v>439631</v>
       </c>
-      <c r="E178">
-        <f t="shared" ref="E178" si="79">AVERAGE(C176:C178)</f>
+      <c r="F178">
+        <f t="shared" ref="F178" si="39">AVERAGE(D176:D178)</f>
         <v>1605</v>
       </c>
-      <c r="F178">
-        <f t="shared" ref="F178" si="80">AVERAGE(D176:D178)</f>
+      <c r="G178">
+        <f t="shared" ref="G178" si="40">AVERAGE(E176:E178)</f>
         <v>442844.33333333331</v>
       </c>
-      <c r="G178">
-        <f>F178/E178</f>
+      <c r="H178">
+        <f>G178/F178</f>
         <v>275.91547248182763</v>
       </c>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A179">
         <v>0</v>
       </c>
-      <c r="B179">
+      <c r="C179">
         <v>3000000</v>
       </c>
-      <c r="C179">
+      <c r="D179">
         <v>1703</v>
       </c>
-      <c r="D179">
+      <c r="E179">
         <v>455045</v>
       </c>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A180">
         <v>1</v>
       </c>
-      <c r="B180">
+      <c r="C180">
         <v>3000000</v>
       </c>
-      <c r="C180">
+      <c r="D180">
         <v>1665</v>
       </c>
-      <c r="D180">
+      <c r="E180">
         <v>450106</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A181">
         <v>2</v>
       </c>
       <c r="B181">
+        <f>C181/100000</f>
+        <v>30</v>
+      </c>
+      <c r="C181">
         <v>3000000</v>
       </c>
-      <c r="C181">
+      <c r="D181">
         <v>1585</v>
       </c>
-      <c r="D181">
+      <c r="E181">
         <v>447042</v>
       </c>
-      <c r="E181">
-        <f t="shared" ref="E181" si="81">AVERAGE(C179:C181)</f>
-        <v>1651</v>
-      </c>
       <c r="F181">
-        <f t="shared" ref="F181" si="82">AVERAGE(D179:D181)</f>
-        <v>450731</v>
+        <f>AVERAGE(D179:D181)/1000</f>
+        <v>1.651</v>
       </c>
       <c r="G181">
-        <f>F181/E181</f>
+        <f>AVERAGE(E179:E181)/1000</f>
+        <v>450.73099999999999</v>
+      </c>
+      <c r="H181">
+        <f>G181/F181</f>
         <v>273.00484554815262</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A182">
         <v>0</v>
       </c>
-      <c r="B182">
+      <c r="C182">
         <v>3050000</v>
       </c>
-      <c r="C182">
+      <c r="D182">
         <v>1451</v>
       </c>
-      <c r="D182">
+      <c r="E182">
         <v>459832</v>
       </c>
     </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A183">
         <v>1</v>
       </c>
-      <c r="B183">
+      <c r="C183">
         <v>3050000</v>
       </c>
-      <c r="C183">
+      <c r="D183">
         <v>1450</v>
       </c>
-      <c r="D183">
+      <c r="E183">
         <v>460558</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A184">
         <v>2</v>
       </c>
-      <c r="B184">
+      <c r="C184">
         <v>3050000</v>
       </c>
-      <c r="C184">
+      <c r="D184">
         <v>1449</v>
       </c>
-      <c r="D184">
+      <c r="E184">
         <v>456699</v>
       </c>
-      <c r="E184">
-        <f t="shared" ref="E184" si="83">AVERAGE(C182:C184)</f>
+      <c r="F184">
+        <f t="shared" ref="F184" si="41">AVERAGE(D182:D184)</f>
         <v>1450</v>
       </c>
-      <c r="F184">
-        <f t="shared" ref="F184" si="84">AVERAGE(D182:D184)</f>
+      <c r="G184">
+        <f t="shared" ref="G184" si="42">AVERAGE(E182:E184)</f>
         <v>459029.66666666669</v>
       </c>
-      <c r="G184">
-        <f>F184/E184</f>
+      <c r="H184">
+        <f>G184/F184</f>
         <v>316.57218390804599</v>
       </c>
     </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A185">
         <v>0</v>
       </c>
-      <c r="B185">
+      <c r="C185">
         <v>3100000</v>
       </c>
-      <c r="C185">
+      <c r="D185">
         <v>1636</v>
       </c>
-      <c r="D185">
+      <c r="E185">
         <v>463624</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A186">
         <v>1</v>
       </c>
-      <c r="B186">
+      <c r="C186">
         <v>3100000</v>
       </c>
-      <c r="C186">
+      <c r="D186">
         <v>1487</v>
       </c>
-      <c r="D186">
+      <c r="E186">
         <v>465862</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A187">
         <v>2</v>
       </c>
       <c r="B187">
+        <f>C187/100000</f>
+        <v>31</v>
+      </c>
+      <c r="C187">
         <v>3100000</v>
       </c>
-      <c r="C187">
+      <c r="D187">
         <v>1623</v>
       </c>
-      <c r="D187">
+      <c r="E187">
         <v>462343</v>
       </c>
-      <c r="E187">
-        <f t="shared" ref="E187" si="85">AVERAGE(C185:C187)</f>
-        <v>1582</v>
-      </c>
       <c r="F187">
-        <f t="shared" ref="F187" si="86">AVERAGE(D185:D187)</f>
-        <v>463943</v>
+        <f>AVERAGE(D185:D187)/1000</f>
+        <v>1.5820000000000001</v>
       </c>
       <c r="G187">
-        <f>F187/E187</f>
+        <f>AVERAGE(E185:E187)/1000</f>
+        <v>463.94299999999998</v>
+      </c>
+      <c r="H187">
+        <f>G187/F187</f>
         <v>293.26359039190896</v>
       </c>
     </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A188">
         <v>0</v>
       </c>
-      <c r="B188">
+      <c r="C188">
         <v>3150000</v>
       </c>
-      <c r="C188">
+      <c r="D188">
         <v>1516</v>
       </c>
-      <c r="D188">
+      <c r="E188">
         <v>474537</v>
       </c>
     </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A189">
         <v>1</v>
       </c>
-      <c r="B189">
+      <c r="C189">
         <v>3150000</v>
       </c>
-      <c r="C189">
+      <c r="D189">
         <v>1651</v>
       </c>
-      <c r="D189">
+      <c r="E189">
         <v>480810</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A190">
         <v>2</v>
       </c>
-      <c r="B190">
+      <c r="C190">
         <v>3150000</v>
       </c>
-      <c r="C190">
+      <c r="D190">
         <v>1508</v>
       </c>
-      <c r="D190">
+      <c r="E190">
         <v>475168</v>
       </c>
-      <c r="E190">
-        <f t="shared" ref="E190" si="87">AVERAGE(C188:C190)</f>
+      <c r="F190">
+        <f t="shared" ref="F190" si="43">AVERAGE(D188:D190)</f>
         <v>1558.3333333333333</v>
       </c>
-      <c r="F190">
-        <f t="shared" ref="F190" si="88">AVERAGE(D188:D190)</f>
+      <c r="G190">
+        <f t="shared" ref="G190" si="44">AVERAGE(E188:E190)</f>
         <v>476838.33333333331</v>
       </c>
-      <c r="G190">
-        <f>F190/E190</f>
+      <c r="H190">
+        <f>G190/F190</f>
         <v>305.99251336898396</v>
       </c>
     </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A191">
         <v>0</v>
       </c>
-      <c r="B191">
+      <c r="C191">
         <v>3200000</v>
       </c>
-      <c r="C191">
+      <c r="D191">
         <v>1693</v>
       </c>
-      <c r="D191">
+      <c r="E191">
         <v>481725</v>
       </c>
     </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A192">
         <v>1</v>
       </c>
-      <c r="B192">
+      <c r="C192">
         <v>3200000</v>
       </c>
-      <c r="C192">
+      <c r="D192">
         <v>1688</v>
       </c>
-      <c r="D192">
+      <c r="E192">
         <v>481259</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A193">
         <v>2</v>
       </c>
       <c r="B193">
+        <f>C193/100000</f>
+        <v>32</v>
+      </c>
+      <c r="C193">
         <v>3200000</v>
       </c>
-      <c r="C193">
+      <c r="D193">
         <v>1690</v>
       </c>
-      <c r="D193">
+      <c r="E193">
         <v>478819</v>
       </c>
-      <c r="E193">
-        <f t="shared" ref="E193" si="89">AVERAGE(C191:C193)</f>
-        <v>1690.3333333333333</v>
-      </c>
       <c r="F193">
-        <f t="shared" ref="F193" si="90">AVERAGE(D191:D193)</f>
-        <v>480601</v>
+        <f>AVERAGE(D191:D193)/1000</f>
+        <v>1.6903333333333332</v>
       </c>
       <c r="G193">
-        <f>F193/E193</f>
+        <f>AVERAGE(E191:E193)/1000</f>
+        <v>480.601</v>
+      </c>
+      <c r="H193">
+        <f>G193/F193</f>
         <v>284.32321041214755</v>
       </c>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A194">
         <v>0</v>
       </c>
-      <c r="B194">
+      <c r="C194">
         <v>3250000</v>
       </c>
-      <c r="C194">
+      <c r="D194">
         <v>1704</v>
       </c>
-      <c r="D194">
+      <c r="E194">
         <v>487012</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A195">
         <v>1</v>
       </c>
-      <c r="B195">
+      <c r="C195">
         <v>3250000</v>
       </c>
-      <c r="C195">
+      <c r="D195">
         <v>1559</v>
       </c>
-      <c r="D195">
+      <c r="E195">
         <v>483735</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A196">
         <v>2</v>
       </c>
-      <c r="B196">
+      <c r="C196">
         <v>3250000</v>
       </c>
-      <c r="C196">
+      <c r="D196">
         <v>1560</v>
       </c>
-      <c r="D196">
+      <c r="E196">
         <v>492782</v>
       </c>
-      <c r="E196">
-        <f t="shared" ref="E196" si="91">AVERAGE(C194:C196)</f>
+      <c r="F196">
+        <f t="shared" ref="F196" si="45">AVERAGE(D194:D196)</f>
         <v>1607.6666666666667</v>
       </c>
-      <c r="F196">
-        <f t="shared" ref="F196" si="92">AVERAGE(D194:D196)</f>
+      <c r="G196">
+        <f t="shared" ref="G196" si="46">AVERAGE(E194:E196)</f>
         <v>487843</v>
       </c>
-      <c r="G196">
-        <f>F196/E196</f>
+      <c r="H196">
+        <f>G196/F196</f>
         <v>303.44785403275966</v>
       </c>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A197">
         <v>0</v>
       </c>
-      <c r="B197">
+      <c r="C197">
         <v>3300000</v>
       </c>
-      <c r="C197">
+      <c r="D197">
         <v>1730</v>
       </c>
-      <c r="D197">
+      <c r="E197">
         <v>491410</v>
       </c>
     </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A198">
         <v>1</v>
       </c>
-      <c r="B198">
+      <c r="C198">
         <v>3300000</v>
       </c>
-      <c r="C198">
+      <c r="D198">
         <v>1590</v>
       </c>
-      <c r="D198">
+      <c r="E198">
         <v>490592</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A199">
         <v>2</v>
       </c>
       <c r="B199">
+        <f>C199/100000</f>
+        <v>33</v>
+      </c>
+      <c r="C199">
         <v>3300000</v>
       </c>
-      <c r="C199">
+      <c r="D199">
         <v>1582</v>
       </c>
-      <c r="D199">
+      <c r="E199">
         <v>495501</v>
       </c>
-      <c r="E199">
-        <f t="shared" ref="E199" si="93">AVERAGE(C197:C199)</f>
-        <v>1634</v>
-      </c>
       <c r="F199">
-        <f t="shared" ref="F199" si="94">AVERAGE(D197:D199)</f>
-        <v>492501</v>
+        <f>AVERAGE(D197:D199)/1000</f>
+        <v>1.6339999999999999</v>
       </c>
       <c r="G199">
-        <f>F199/E199</f>
+        <f>AVERAGE(E197:E199)/1000</f>
+        <v>492.50099999999998</v>
+      </c>
+      <c r="H199">
+        <f>G199/F199</f>
         <v>301.40820073439414</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A200">
         <v>0</v>
       </c>
-      <c r="B200">
+      <c r="C200">
         <v>3350000</v>
       </c>
-      <c r="C200">
+      <c r="D200">
         <v>1760</v>
       </c>
-      <c r="D200">
+      <c r="E200">
         <v>502344</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A201">
         <v>1</v>
       </c>
-      <c r="B201">
+      <c r="C201">
         <v>3350000</v>
       </c>
-      <c r="C201">
+      <c r="D201">
         <v>1777</v>
       </c>
-      <c r="D201">
+      <c r="E201">
         <v>498184</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A202">
         <v>2</v>
       </c>
-      <c r="B202">
+      <c r="C202">
         <v>3350000</v>
       </c>
-      <c r="C202">
+      <c r="D202">
         <v>1758</v>
       </c>
-      <c r="D202">
+      <c r="E202">
         <v>498571</v>
       </c>
-      <c r="E202">
-        <f t="shared" ref="E202" si="95">AVERAGE(C200:C202)</f>
+      <c r="F202">
+        <f t="shared" ref="F202" si="47">AVERAGE(D200:D202)</f>
         <v>1765</v>
       </c>
-      <c r="F202">
-        <f t="shared" ref="F202" si="96">AVERAGE(D200:D202)</f>
+      <c r="G202">
+        <f t="shared" ref="G202" si="48">AVERAGE(E200:E202)</f>
         <v>499699.66666666669</v>
       </c>
-      <c r="G202">
-        <f>F202/E202</f>
+      <c r="H202">
+        <f>G202/F202</f>
         <v>283.11595845136924</v>
       </c>
     </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A203">
         <v>0</v>
       </c>
-      <c r="B203">
+      <c r="C203">
         <v>3400000</v>
       </c>
-      <c r="C203">
+      <c r="D203">
         <v>1619</v>
       </c>
-      <c r="D203">
+      <c r="E203">
         <v>506885</v>
       </c>
     </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A204">
         <v>1</v>
       </c>
-      <c r="B204">
+      <c r="C204">
         <v>3400000</v>
       </c>
-      <c r="C204">
+      <c r="D204">
         <v>1622</v>
       </c>
-      <c r="D204">
+      <c r="E204">
         <v>509311</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A205">
         <v>2</v>
       </c>
       <c r="B205">
+        <f>C205/100000</f>
+        <v>34</v>
+      </c>
+      <c r="C205">
         <v>3400000</v>
       </c>
-      <c r="C205">
+      <c r="D205">
         <v>1801</v>
       </c>
-      <c r="D205">
+      <c r="E205">
         <v>512898</v>
       </c>
-      <c r="E205">
-        <f t="shared" ref="E205" si="97">AVERAGE(C203:C205)</f>
-        <v>1680.6666666666667</v>
-      </c>
       <c r="F205">
-        <f t="shared" ref="F205" si="98">AVERAGE(D203:D205)</f>
-        <v>509698</v>
+        <f>AVERAGE(D203:D205)/1000</f>
+        <v>1.6806666666666668</v>
       </c>
       <c r="G205">
-        <f>F205/E205</f>
+        <f>AVERAGE(E203:E205)/1000</f>
+        <v>509.69799999999998</v>
+      </c>
+      <c r="H205">
+        <f>G205/F205</f>
         <v>303.27132090440301</v>
       </c>
     </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A206">
         <v>0</v>
       </c>
-      <c r="B206">
+      <c r="C206">
         <v>3450000</v>
       </c>
-      <c r="C206">
+      <c r="D206">
         <v>1818</v>
       </c>
-      <c r="D206">
+      <c r="E206">
         <v>519700</v>
       </c>
     </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A207">
         <v>1</v>
       </c>
-      <c r="B207">
+      <c r="C207">
         <v>3450000</v>
       </c>
-      <c r="C207">
+      <c r="D207">
         <v>1819</v>
       </c>
-      <c r="D207">
+      <c r="E207">
         <v>513541</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="A208">
         <v>2</v>
       </c>
-      <c r="B208">
+      <c r="C208">
         <v>3450000</v>
       </c>
-      <c r="C208">
+      <c r="D208">
         <v>1817</v>
       </c>
-      <c r="D208">
+      <c r="E208">
         <v>513269</v>
       </c>
-      <c r="E208">
-        <f t="shared" ref="E208" si="99">AVERAGE(C206:C208)</f>
+      <c r="F208">
+        <f t="shared" ref="F208" si="49">AVERAGE(D206:D208)</f>
         <v>1818</v>
       </c>
-      <c r="F208">
-        <f t="shared" ref="F208" si="100">AVERAGE(D206:D208)</f>
+      <c r="G208">
+        <f t="shared" ref="G208" si="50">AVERAGE(E206:E208)</f>
         <v>515503.33333333331</v>
       </c>
-      <c r="G208">
-        <f>F208/E208</f>
+      <c r="H208">
+        <f>G208/F208</f>
         <v>283.55518885221852</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F208">
-    <filterColumn colId="5">
+  <autoFilter ref="A1:G208">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="100000"/>
+        <filter val="1000000"/>
+        <filter val="1100000"/>
+        <filter val="1200000"/>
+        <filter val="1300000"/>
+        <filter val="1400000"/>
+        <filter val="1500000"/>
+        <filter val="1600000"/>
+        <filter val="1700000"/>
+        <filter val="1800000"/>
+        <filter val="1900000"/>
+        <filter val="200000"/>
+        <filter val="2000000"/>
+        <filter val="2100000"/>
+        <filter val="2200000"/>
+        <filter val="2300000"/>
+        <filter val="2400000"/>
+        <filter val="2500000"/>
+        <filter val="2600000"/>
+        <filter val="2700000"/>
+        <filter val="2800000"/>
+        <filter val="2900000"/>
+        <filter val="300000"/>
+        <filter val="3000000"/>
+        <filter val="3100000"/>
+        <filter val="3200000"/>
+        <filter val="3300000"/>
+        <filter val="3400000"/>
+        <filter val="400000"/>
+        <filter val="500000"/>
+        <filter val="600000"/>
+        <filter val="700000"/>
+        <filter val="800000"/>
+        <filter val="900000"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
